--- a/Bananas/Arrays_Only.xlsx
+++ b/Bananas/Arrays_Only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Bananas/Bananas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E617644-82ED-1943-9978-4FA388971551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9F3D6-945F-0841-A420-A35599B5BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="1" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
   <si>
     <t>Images</t>
   </si>
@@ -456,7 +456,28 @@
     <t>Player_Running_Jump_LH_07</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Player_Cliimbing_Vine_Up_1L_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Up_1L_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Up_1L_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Up_1L_RH_03</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Down_1L_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Down_1L_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Down_1L_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Cliimbing_Vine_Down_1L_RH_03</t>
   </si>
 </sst>
 </file>
@@ -3868,11 +3889,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3921,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>_xlfn.XLOOKUP(I2,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I2,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P2" t="str">
@@ -3953,17 +3974,17 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <f>_xlfn.XLOOKUP(I3,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I3,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P44" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
+        <f t="shared" ref="P3:P52" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
         <v>0, -2, -1, -1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A27" si="1">A3+1</f>
+        <f t="shared" ref="A4:A44" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3985,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>_xlfn.XLOOKUP(I4,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I4,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P4" t="str">
@@ -4017,7 +4038,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <f>_xlfn.XLOOKUP(I5,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I5,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P5" t="str">
@@ -4049,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>_xlfn.XLOOKUP(I6,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I6,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P6" t="str">
@@ -4081,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>_xlfn.XLOOKUP(I7,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I7,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P7" t="str">
@@ -4113,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>_xlfn.XLOOKUP(I8,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I8,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P8" t="str">
@@ -4145,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>_xlfn.XLOOKUP(I9,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I9,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P9" t="str">
@@ -4177,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>_xlfn.XLOOKUP(I10,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I10,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P10" t="str">
@@ -4209,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>_xlfn.XLOOKUP(I11,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I11,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P11" t="str">
@@ -4241,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>_xlfn.XLOOKUP(I12,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I12,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P12" t="str">
@@ -4273,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>_xlfn.XLOOKUP(I13,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I13,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P13" t="str">
@@ -4305,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>_xlfn.XLOOKUP(I14,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I14,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P14" t="str">
@@ -4337,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H22" si="2">_xlfn.XLOOKUP(I15,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I15,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P15" t="str">
@@ -4369,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I16,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P16" t="str">
@@ -4401,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I17,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P17" t="str">
@@ -4433,7 +4454,7 @@
         <v>-1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I18,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P18" t="str">
@@ -4465,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I19,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P19" t="str">
@@ -4497,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I20,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P20" t="str">
@@ -4529,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I21,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P21" t="str">
@@ -4561,7 +4582,7 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP(I22,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P22" t="str">
@@ -4575,13 +4596,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4593,12 +4614,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>_xlfn.XLOOKUP(I23,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I23,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4607,30 +4628,30 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <f>_xlfn.XLOOKUP(I24,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I24,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <f t="shared" ref="P24:P25" si="2">_xlfn.CONCAT(D24,", ",E24,", ",F24,", ",G24)</f>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4639,30 +4660,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <f>_xlfn.XLOOKUP(I25,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I25,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" si="2"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4671,30 +4692,30 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <f>_xlfn.XLOOKUP(I26,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I26,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <f t="shared" ref="P26:P29" si="3">_xlfn.CONCAT(D26,", ",E26,", ",F26,", ",G26)</f>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4703,263 +4724,263 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.XLOOKUP(I27,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.XLOOKUP(I28,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.XLOOKUP(I29,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>_xlfn.XLOOKUP(I30,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" ref="P30" si="4">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>_xlfn.XLOOKUP(I31,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f>_xlfn.XLOOKUP(I27,$B$2:$B$23,$A$2:$A$23,65535)</f>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>_xlfn.XLOOKUP(I32,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>_xlfn.XLOOKUP(I33,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v>0, 2, 1, 0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" ref="A28:A43" si="3">A27+1</f>
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28">
-        <v>42</v>
-      </c>
-      <c r="D28">
-        <v>-4</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f>_xlfn.XLOOKUP(I28,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" ref="P28:P43" si="4">_xlfn.CONCAT(D28,", ",E28,", ",F28,", ",G28)</f>
-        <v>-4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29">
-        <v>42</v>
-      </c>
-      <c r="D29">
-        <v>-2</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>_xlfn.XLOOKUP(I29,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="4"/>
-        <v>-2, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30">
-        <v>42</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f>_xlfn.XLOOKUP(I30,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="4"/>
-        <v>-1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31">
-        <v>42</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>_xlfn.XLOOKUP(I31,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="4"/>
-        <v>0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>_xlfn.XLOOKUP(I32,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="4"/>
-        <v>1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33">
-        <v>42</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>_xlfn.XLOOKUP(I33,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="4"/>
-        <v>2, 0, 0, 0</v>
-      </c>
-    </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>42</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <f>_xlfn.XLOOKUP(I34,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I34,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="4"/>
-        <v>4, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>42</v>
@@ -4968,62 +4989,62 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <f>_xlfn.XLOOKUP(I35,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I35,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="4"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>-4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
-        <v>131</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H43" si="5">_xlfn.XLOOKUP(I36,$B$2:$B$23,$A$2:$A$23,65535)</f>
+        <f>_xlfn.XLOOKUP(I36,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="4"/>
-        <v>-4, 1, 0, s</v>
+        <f t="shared" ref="P36:P51" si="5">_xlfn.CONCAT(D36,", ",E36,", ",F36,", ",G36)</f>
+        <v>-4, 0, 0, 0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>42</v>
@@ -5032,30 +5053,30 @@
         <v>-2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
+        <f>_xlfn.XLOOKUP(I37,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="4"/>
-        <v>-2, 1, 1, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>42</v>
@@ -5064,7 +5085,7 @@
         <v>-1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5073,21 +5094,21 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <f>_xlfn.XLOOKUP(I38,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="4"/>
-        <v>-1, 1, 0, 0</v>
+        <v>-1, 0, 0, 0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>42</v>
@@ -5096,30 +5117,30 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
+        <f>_xlfn.XLOOKUP(I39,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="4"/>
-        <v>0, 1, 1, 1</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C40">
         <v>42</v>
@@ -5128,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5137,21 +5158,21 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <f>_xlfn.XLOOKUP(I40,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="4"/>
-        <v>1, 1, 0, 0</v>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -5160,30 +5181,30 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <f>_xlfn.XLOOKUP(I41,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="4"/>
-        <v>2, 1, 1, 0</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -5192,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5201,114 +5222,370 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f>_xlfn.XLOOKUP(I42,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="5"/>
-        <v>65535</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="4"/>
-        <v>4, 1, 0, 0</v>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>_xlfn.XLOOKUP(I43,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>-4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>_xlfn.XLOOKUP(I44,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>-4, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ref="A36:A51" si="6">A44+1</f>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>-2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>_xlfn.XLOOKUP(I45,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>_xlfn.XLOOKUP(I46,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>-1, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f>_xlfn.XLOOKUP(I47,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="5"/>
+        <v>0, 1, 1, 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>_xlfn.XLOOKUP(I48,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="5"/>
+        <v>1, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>_xlfn.XLOOKUP(I49,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>_xlfn.XLOOKUP(I50,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="5"/>
+        <v>4, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C43">
+      <c r="C51">
         <v>41</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="F51">
         <v>1</v>
       </c>
-      <c r="G43">
+      <c r="G51">
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="H51">
+        <f>_xlfn.XLOOKUP(I51,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="5"/>
+        <v>0, 1, 1, 1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>_xlfn.XLOOKUP(I52,$B$2:$B$31,$A$2:$A$31,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P43" t="str">
-        <f t="shared" si="4"/>
-        <v>0, 1, 1, 1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f>A27+1</f>
-        <v>26</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44">
+      <c r="J52">
+        <f>C52-C83</f>
         <v>7</v>
       </c>
-      <c r="D44">
+      <c r="K52">
+        <f>D52-D83</f>
         <v>15</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>_xlfn.XLOOKUP(I44,$B$2:$B$23,$A$2:$A$23,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="J44">
-        <f>C44-C75</f>
-        <v>7</v>
-      </c>
-      <c r="K44">
-        <f>D44-D75</f>
-        <v>15</v>
-      </c>
-      <c r="L44">
-        <f>E44+E75</f>
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <f>F44+F75</f>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f>G44+G75</f>
-        <v>0</v>
-      </c>
-      <c r="P44" t="str">
+      <c r="L52">
+        <f>E52+E83</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>F52+F83</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>G52+G83</f>
+        <v>0</v>
+      </c>
+      <c r="P52" t="str">
         <f t="shared" si="0"/>
         <v>15, 0, 0, 0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C46" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C44),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 40, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 42, 42, 42, 42, 42, 42, 41, 7};</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C47" t="str">
-        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H44),"};")</f>
-        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C48" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P44),"};")</f>
-        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, 1, 0, s , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , 15, 0, 0, 0};</v>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C54" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C52),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 4, 3, 4, 3, 4, 3, 4, 40, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 42, 42, 42, 42, 42, 42, 41, 7};</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C55" t="str">
+        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H52),"};")</f>
+        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C56" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P52),"};")</f>
+        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , 15, 0, 0, 0};</v>
       </c>
     </row>
   </sheetData>

--- a/Bananas/Arrays_Only.xlsx
+++ b/Bananas/Arrays_Only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Bananas/Bananas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9F3D6-945F-0841-A420-A35599B5BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F569687-7511-A141-A576-58E85069FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="1" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="212">
   <si>
     <t>Images</t>
   </si>
@@ -456,35 +456,254 @@
     <t>Player_Running_Jump_LH_07</t>
   </si>
   <si>
-    <t>Player_Cliimbing_Vine_Up_1L_RH_00</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Up_1L_RH_01</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Up_1L_RH_02</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Up_1L_RH_03</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Down_1L_RH_01</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Down_1L_RH_00</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Down_1L_RH_02</t>
-  </si>
-  <si>
-    <t>Player_Cliimbing_Vine_Down_1L_RH_03</t>
+    <t>Player_Climbing_Vine_Up_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_RH_03</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_RH_03</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_LH_00</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_LH_01</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_LH_02</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Up_LH_03</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_LH_00</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_LH_01</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_LH_02</t>
+  </si>
+  <si>
+    <t>Player_Climbing_Vine_Down_LH_03</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_00</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_01</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_02</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_03</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_04</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_05</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_06</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_LH_07</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_00</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_01</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_02</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_03</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_04</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_05</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_06</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_LH_07</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_03</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_04</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_05</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_06</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_A_RH_07</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_00</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_01</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_02</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_03</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_04</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_05</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_06</t>
+  </si>
+  <si>
+    <t>Player_Falling_1L_B_RH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Idle_RH</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_RH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_RH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_LH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Walking_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Falling_1L_LH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Idle_LH</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_00</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_01</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_02</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_03</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_04</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_05</t>
+  </si>
+  <si>
+    <t>Enemy_Fall_1L_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +735,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -590,6 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3889,11 +4116,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3942,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>_xlfn.XLOOKUP(I2,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I2,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P2" t="str">
@@ -3974,17 +4201,17 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <f>_xlfn.XLOOKUP(I3,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I3,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P52" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
+        <f t="shared" ref="P3:P125" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
         <v>0, -2, -1, -1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A44" si="1">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4006,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>_xlfn.XLOOKUP(I4,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I4,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P4" t="str">
@@ -4038,7 +4265,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <f>_xlfn.XLOOKUP(I5,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I5,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P5" t="str">
@@ -4070,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>_xlfn.XLOOKUP(I6,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I6,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P6" t="str">
@@ -4102,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>_xlfn.XLOOKUP(I7,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I7,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P7" t="str">
@@ -4134,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>_xlfn.XLOOKUP(I8,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I8,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P8" t="str">
@@ -4166,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>_xlfn.XLOOKUP(I9,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I9,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P9" t="str">
@@ -4198,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>_xlfn.XLOOKUP(I10,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I10,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P10" t="str">
@@ -4230,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>_xlfn.XLOOKUP(I11,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I11,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P11" t="str">
@@ -4262,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>_xlfn.XLOOKUP(I12,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I12,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P12" t="str">
@@ -4294,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>_xlfn.XLOOKUP(I13,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I13,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P13" t="str">
@@ -4326,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>_xlfn.XLOOKUP(I14,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I14,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P14" t="str">
@@ -4358,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>_xlfn.XLOOKUP(I15,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I15,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P15" t="str">
@@ -4390,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>_xlfn.XLOOKUP(I16,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I16,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P16" t="str">
@@ -4422,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>_xlfn.XLOOKUP(I17,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I17,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P17" t="str">
@@ -4454,7 +4681,7 @@
         <v>-1</v>
       </c>
       <c r="H18">
-        <f>_xlfn.XLOOKUP(I18,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I18,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P18" t="str">
@@ -4486,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f>_xlfn.XLOOKUP(I19,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I19,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P19" t="str">
@@ -4518,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>_xlfn.XLOOKUP(I20,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I20,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P20" t="str">
@@ -4550,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>_xlfn.XLOOKUP(I21,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I21,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P21" t="str">
@@ -4582,7 +4809,7 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <f>_xlfn.XLOOKUP(I22,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I22,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P22" t="str">
@@ -4614,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>_xlfn.XLOOKUP(I23,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I23,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P23" t="str">
@@ -4631,7 +4858,7 @@
         <v>132</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>-2</v>
@@ -4646,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>_xlfn.XLOOKUP(I24,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I24,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P24" t="str">
@@ -4663,7 +4890,7 @@
         <v>133</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>-2</v>
@@ -4678,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f>_xlfn.XLOOKUP(I25,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I25,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P25" t="str">
@@ -4710,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>_xlfn.XLOOKUP(I26,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I26,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P26" t="str">
@@ -4724,7 +4951,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -4742,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>_xlfn.XLOOKUP(I27,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I27,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P27" t="str">
@@ -4756,10 +4983,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4774,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>_xlfn.XLOOKUP(I28,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I28,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P28" t="str">
@@ -4791,7 +5018,7 @@
         <v>137</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4806,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>_xlfn.XLOOKUP(I29,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I29,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P29" t="str">
@@ -4838,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>_xlfn.XLOOKUP(I30,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I30,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" ref="P30" si="4">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
+        <f t="shared" ref="P30:P46" si="4">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
@@ -4852,30 +5079,30 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <f>_xlfn.XLOOKUP(I31,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I31,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, -2, 0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -4884,30 +5111,30 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-1</v>
       </c>
       <c r="H32">
-        <f>_xlfn.XLOOKUP(I32,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I32,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, 0, -1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -4916,30 +5143,30 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>-1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <f>_xlfn.XLOOKUP(I33,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I33,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" si="4"/>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -4948,30 +5175,30 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-1</v>
       </c>
       <c r="H34">
-        <f>_xlfn.XLOOKUP(I34,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I34,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <f t="shared" si="4"/>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -4980,30 +5207,30 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <f>_xlfn.XLOOKUP(I35,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I35,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" si="4"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5012,30 +5239,30 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F36" s="12">
+        <v>-1</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f>_xlfn.XLOOKUP(I36,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I36,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" ref="P36:P51" si="5">_xlfn.CONCAT(D36,", ",E36,", ",F36,", ",G36)</f>
-        <v>-4, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>3, -1, -1, 0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5044,13 +5271,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5062,12 +5289,12 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>_xlfn.XLOOKUP(I37,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I37,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5076,17 +5303,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C38">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
         <v>-1</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -5094,12 +5321,12 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>_xlfn.XLOOKUP(I38,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I38,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="5"/>
-        <v>-1, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>3, -1, 0, 0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5108,30 +5335,30 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C39">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="F39" s="12">
+        <v>-1</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <f>_xlfn.XLOOKUP(I39,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I39,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5140,30 +5367,30 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="G40" s="12">
+        <v>-1</v>
       </c>
       <c r="H40">
-        <f>_xlfn.XLOOKUP(I40,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I40,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="5"/>
-        <v>1, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, 0, -1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5172,30 +5399,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="E41" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>-1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <f>_xlfn.XLOOKUP(I41,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I41,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5204,30 +5431,30 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E42" s="12">
+        <v>-1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>0</v>
+      <c r="G42" s="12">
+        <v>-1</v>
       </c>
       <c r="H42">
-        <f>_xlfn.XLOOKUP(I42,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I42,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="5"/>
-        <v>4, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5236,13 +5463,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5254,12 +5481,12 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>_xlfn.XLOOKUP(I43,$B$2:$B$31,$A$2:$A$31,65535)</f>
+        <f>_xlfn.XLOOKUP(I43,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5268,324 +5495,2792 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>_xlfn.XLOOKUP(I44,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="4"/>
+        <v>3, -1, -1, 0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>_xlfn.XLOOKUP(I45,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="4"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>_xlfn.XLOOKUP(I46,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="4"/>
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>_xlfn.XLOOKUP(I47,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f>_xlfn.XLOOKUP(I48,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>_xlfn.XLOOKUP(I49,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>42</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f>_xlfn.XLOOKUP(I50,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>_xlfn.XLOOKUP(I51,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>-4</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>_xlfn.XLOOKUP(I52,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" ref="P52:P75" si="5">_xlfn.CONCAT(D52,", ",E52,", ",F52,", ",G52)</f>
+        <v>-4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53">
+        <v>-2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>_xlfn.XLOOKUP(I53,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>_xlfn.XLOOKUP(I54,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="5"/>
+        <v>-1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>_xlfn.XLOOKUP(I55,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="5"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>42</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>_xlfn.XLOOKUP(I56,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="5"/>
+        <v>1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>42</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>_xlfn.XLOOKUP(I57,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>_xlfn.XLOOKUP(I58,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="5"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>42</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>_xlfn.XLOOKUP(I59,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="5"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44">
+      <c r="C60">
         <v>41</v>
       </c>
-      <c r="D44">
+      <c r="D60">
         <v>-4</v>
       </c>
-      <c r="E44">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>_xlfn.XLOOKUP(I44,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>_xlfn.XLOOKUP(I60,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P44" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="5"/>
         <v>-4, 1, 0, 0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" ref="A36:A51" si="6">A44+1</f>
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C45">
+      <c r="C61">
         <v>42</v>
       </c>
-      <c r="D45">
+      <c r="D61">
         <v>-2</v>
       </c>
-      <c r="E45">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="F61">
         <v>1</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f>_xlfn.XLOOKUP(I45,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>_xlfn.XLOOKUP(I61,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P45" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="5"/>
         <v>-2, 1, 1, 0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C46">
+      <c r="C62">
         <v>42</v>
       </c>
-      <c r="D46">
+      <c r="D62">
         <v>-1</v>
       </c>
-      <c r="E46">
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f>_xlfn.XLOOKUP(I46,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>_xlfn.XLOOKUP(I62,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P46" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="5"/>
         <v>-1, 1, 0, 0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C47">
+      <c r="C63">
         <v>42</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F63">
         <v>1</v>
       </c>
-      <c r="G47">
+      <c r="G63">
         <v>1</v>
       </c>
-      <c r="H47">
-        <f>_xlfn.XLOOKUP(I47,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="H63">
+        <f>_xlfn.XLOOKUP(I63,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P47" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="5"/>
         <v>0, 1, 1, 1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48">
+      <c r="C64">
         <v>42</v>
       </c>
-      <c r="D48">
+      <c r="D64">
         <v>1</v>
       </c>
-      <c r="E48">
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f>_xlfn.XLOOKUP(I48,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>_xlfn.XLOOKUP(I64,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P48" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="5"/>
         <v>1, 1, 0, 0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49">
+      <c r="C65">
         <v>42</v>
       </c>
-      <c r="D49">
+      <c r="D65">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="F65">
         <v>1</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f>_xlfn.XLOOKUP(I49,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>_xlfn.XLOOKUP(I65,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P49" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="5"/>
         <v>2, 1, 1, 0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C50">
+      <c r="C66">
         <v>42</v>
       </c>
-      <c r="D50">
+      <c r="D66">
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f>_xlfn.XLOOKUP(I50,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>_xlfn.XLOOKUP(I66,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P50" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="5"/>
         <v>4, 1, 0, 0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C51">
+      <c r="C67">
         <v>41</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F67">
         <v>1</v>
       </c>
-      <c r="G51">
+      <c r="G67">
         <v>1</v>
       </c>
-      <c r="H51">
-        <f>_xlfn.XLOOKUP(I51,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="H67">
+        <f>_xlfn.XLOOKUP(I67,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="P51" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="5"/>
         <v>0, 1, 1, 1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f>A35+1</f>
-        <v>34</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ref="A68:A125" si="6">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68">
+        <v>43</v>
+      </c>
+      <c r="D68">
+        <v>-2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>_xlfn.XLOOKUP(I68,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69">
+        <v>43</v>
+      </c>
+      <c r="D69">
+        <v>-2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f>_xlfn.XLOOKUP(I69,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70">
+        <v>44</v>
+      </c>
+      <c r="D70">
+        <v>-2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>_xlfn.XLOOKUP(I70,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>-2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>_xlfn.XLOOKUP(I71,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="5"/>
+        <v>-2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72">
+        <v>43</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>_xlfn.XLOOKUP(I72,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73">
+        <v>43</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>_xlfn.XLOOKUP(I73,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>_xlfn.XLOOKUP(I74,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>_xlfn.XLOOKUP(I75,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>42</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>_xlfn.XLOOKUP(I76,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" ref="P76" si="7">_xlfn.CONCAT(D76,", ",E76,", ",F76,", ",G76)</f>
+        <v>0, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77">
+        <v>42</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f>_xlfn.XLOOKUP(I77,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" ref="P77:P78" si="8">_xlfn.CONCAT(D77,", ",E77,", ",F77,", ",G77)</f>
+        <v>0, 2, 0, 1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78">
+        <v>42</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>_xlfn.XLOOKUP(I78,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="8"/>
+        <v>2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79">
+        <v>42</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f>_xlfn.XLOOKUP(I79,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" ref="P79:P82" si="9">_xlfn.CONCAT(D79,", ",E79,", ",F79,", ",G79)</f>
+        <v>2, 1, 0, 1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80">
+        <v>42</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>_xlfn.XLOOKUP(I80,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="9"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81">
+        <v>42</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>_xlfn.XLOOKUP(I81,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="9"/>
+        <v>3, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82">
+        <v>42</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>_xlfn.XLOOKUP(I82,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="9"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83">
+        <v>41</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>_xlfn.XLOOKUP(I83,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" ref="P83:P90" si="10">_xlfn.CONCAT(D83,", ",E83,", ",F83,", ",G83)</f>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>_xlfn.XLOOKUP(I84,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="10"/>
+        <v>0, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85">
+        <v>41</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f>_xlfn.XLOOKUP(I85,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="10"/>
+        <v>0, 2, 0, 1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86">
+        <v>42</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>_xlfn.XLOOKUP(I86,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="10"/>
+        <v>2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87">
+        <v>42</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f>_xlfn.XLOOKUP(I87,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="10"/>
+        <v>2, 1, 0, 1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88">
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>_xlfn.XLOOKUP(I88,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="10"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89">
+        <v>42</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>_xlfn.XLOOKUP(I89,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="10"/>
+        <v>3, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90">
+        <v>42</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>_xlfn.XLOOKUP(I90,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="10"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91">
+        <v>41</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>_xlfn.XLOOKUP(I91,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" ref="P91" si="11">_xlfn.CONCAT(D91,", ",E91,", ",F91,", ",G91)</f>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>_xlfn.XLOOKUP(I92,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P92" t="str">
+        <f>_xlfn.CONCAT(D92,", ",E92,", ",F92,", ",G92)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>_xlfn.XLOOKUP(I93,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" ref="P93:P104" si="12">_xlfn.CONCAT(D93,", ",E93,", ",F93,", ",G93)</f>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>_xlfn.XLOOKUP(I94,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>_xlfn.XLOOKUP(I95,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>_xlfn.XLOOKUP(I96,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>_xlfn.XLOOKUP(I97,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>_xlfn.XLOOKUP(I98,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>_xlfn.XLOOKUP(I99,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="12"/>
+        <v>2, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>_xlfn.XLOOKUP(I100,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="12"/>
+        <v>2, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>_xlfn.XLOOKUP(I101,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="12"/>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>_xlfn.XLOOKUP(I102,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="12"/>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>_xlfn.XLOOKUP(I103,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="12"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>_xlfn.XLOOKUP(I104,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="12"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>_xlfn.XLOOKUP(I105,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P105" t="str">
+        <f>_xlfn.CONCAT(D105,", ",E105,", ",F105,", ",G105)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>-2</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f>_xlfn.XLOOKUP(I106,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" ref="P106:P117" si="13">_xlfn.CONCAT(D106,", ",E106,", ",F106,", ",G106)</f>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>-2</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>_xlfn.XLOOKUP(I107,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="13"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>-2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>_xlfn.XLOOKUP(I108,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="13"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>-2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>_xlfn.XLOOKUP(I109,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="13"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>-2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>_xlfn.XLOOKUP(I110,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="13"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>-2</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f>_xlfn.XLOOKUP(I111,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="13"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>-1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f>_xlfn.XLOOKUP(I112,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="13"/>
+        <v>2, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>-1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>_xlfn.XLOOKUP(I113,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="13"/>
+        <v>2, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>-1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f>_xlfn.XLOOKUP(I114,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="13"/>
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>-1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f>_xlfn.XLOOKUP(I115,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="13"/>
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>_xlfn.XLOOKUP(I116,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="13"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f>_xlfn.XLOOKUP(I117,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="13"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f>_xlfn.XLOOKUP(I118,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P118" t="str">
+        <f>_xlfn.CONCAT(D118,", ",E118,", ",F118,", ",G118)</f>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f>_xlfn.XLOOKUP(I119,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P119" t="str">
+        <f>_xlfn.CONCAT(D119,", ",E119,", ",F119,", ",G119)</f>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f>_xlfn.XLOOKUP(I120,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P120" t="str">
+        <f>_xlfn.CONCAT(D120,", ",E120,", ",F120,", ",G120)</f>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f>_xlfn.XLOOKUP(I121,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P121" t="str">
+        <f>_xlfn.CONCAT(D121,", ",E121,", ",F121,", ",G121)</f>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f>_xlfn.XLOOKUP(I122,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P122" t="str">
+        <f>_xlfn.CONCAT(D122,", ",E122,", ",F122,", ",G122)</f>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>-1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f>_xlfn.XLOOKUP(I123,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P123" t="str">
+        <f>_xlfn.CONCAT(D123,", ",E123,", ",F123,", ",G123)</f>
+        <v>-1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f>_xlfn.XLOOKUP(I124,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P124" t="str">
+        <f>_xlfn.CONCAT(D124,", ",E124,", ",F124,", ",G124)</f>
+        <v>1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52">
+      <c r="C125">
         <v>7</v>
       </c>
-      <c r="D52">
+      <c r="D125">
         <v>15</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f>_xlfn.XLOOKUP(I52,$B$2:$B$31,$A$2:$A$31,65535)</f>
+      <c r="E125">
+        <v>-1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f>_xlfn.XLOOKUP(I125,$B$2:$B$47,$A$2:$A$47,65535)</f>
         <v>65535</v>
       </c>
-      <c r="J52">
-        <f>C52-C83</f>
+      <c r="J125">
+        <f>C125-C156</f>
         <v>7</v>
       </c>
-      <c r="K52">
-        <f>D52-D83</f>
+      <c r="K125">
+        <f>D125-D156</f>
         <v>15</v>
       </c>
-      <c r="L52">
-        <f>E52+E83</f>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>F52+F83</f>
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <f>G52+G83</f>
-        <v>0</v>
-      </c>
-      <c r="P52" t="str">
+      <c r="L125">
+        <f>E125+E156</f>
+        <v>-1</v>
+      </c>
+      <c r="M125">
+        <f>F125+F156</f>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f>G125+G156</f>
+        <v>0</v>
+      </c>
+      <c r="P125" t="str">
         <f t="shared" si="0"/>
-        <v>15, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C54" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C52),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 4, 3, 4, 3, 4, 3, 4, 40, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 42, 42, 42, 42, 42, 42, 41, 7};</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C55" t="str">
-        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H52),"};")</f>
-        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C56" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P52),"};")</f>
-        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , 15, 0, 0, 0};</v>
+        <v>15, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C127" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C125),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 3, 4, 4, 3, 3, 4, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 1, 40, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 42, 42, 42, 42, 42, 42, 41, 43, 43, 44, 44, 43, 43, 44, 44, 42, 42, 42, 42, 42, 42, 42, 41, 41, 41, 42, 42, 42, 42, 42, 41, 0, 0, 3, 2, 1, 0, 1, 2, 3, 0, 1, 2, 3, 0, 0, 1, 2, 3, 0, 1, 2, 3, 0, 1, 2, 3, 1, 2, 3, 1, 2, 3, 0, 7};</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C128" t="str">
+        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H125),"};")</f>
+        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P125),"};")</f>
+        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 15, -1, 0, 0};</v>
+      </c>
+    </row>
+    <row r="145" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>2</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>2</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>2</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>2</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bananas/Arrays_Only.xlsx
+++ b/Bananas/Arrays_Only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Bananas/Bananas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F569687-7511-A141-A576-58E85069FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE5AFE-B03D-074A-98FB-5E8CEAFCC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="1" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="303">
   <si>
     <t>Images</t>
   </si>
@@ -603,15 +603,6 @@
     <t>Enemy_Idle_RH</t>
   </si>
   <si>
-    <t>Enemy_Walking_RH_00</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_RH_01</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_RH_02</t>
-  </si>
-  <si>
     <t>Enemy_Falling_1L_RH_00</t>
   </si>
   <si>
@@ -636,21 +627,6 @@
     <t>Enemy_Falling_1L_RH_07</t>
   </si>
   <si>
-    <t>Enemy_Walking_RH_03</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_LH_00</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_LH_01</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_LH_02</t>
-  </si>
-  <si>
-    <t>Enemy_Walking_LH_03</t>
-  </si>
-  <si>
     <t>Enemy_Falling_1L_LH_00</t>
   </si>
   <si>
@@ -697,6 +673,303 @@
   </si>
   <si>
     <t>Enemy_Fall_1L_06</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_13</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_14</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_15</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_16</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_17</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_13</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_14</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_15</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_RH_16</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_18</t>
+  </si>
+  <si>
+    <t>Enemy_Flying_LH_19</t>
+  </si>
+  <si>
+    <t>Player_Lying_RH</t>
+  </si>
+  <si>
+    <t>Player_Lying_LH</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_RH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_LH_00</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Rolling_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_00</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_01</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_02</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_03</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_04</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_05</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_06</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_07</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_08</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_09</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_10</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_11</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_12</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_13</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_00</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_01</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_02</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_03</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_04</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_05</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_06</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_07</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_08</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_09</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_10</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_11</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_12</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_13</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_14</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_R1_15</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_14</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_L1_15</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_00</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_01</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_02</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_03</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_04</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_05</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_06</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_07</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_08</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_09</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_10</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_11</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_12</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_13</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_14</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Idle_15</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_RH_08</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_RH_09</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_LH_08</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_LH_09</t>
   </si>
 </sst>
 </file>
@@ -4116,11 +4389,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4169,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>_xlfn.XLOOKUP(I2,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I2,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P2" t="str">
@@ -4183,30 +4456,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>_xlfn.XLOOKUP(I3,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I3,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P125" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
-        <v>0, -2, -1, -1</v>
+        <f t="shared" ref="P3:P68" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4215,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4230,15 +4503,15 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <f>_xlfn.XLOOKUP(I4,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I4,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, -1, 0</v>
+        <v>0, -2, -1, -1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4247,10 +4520,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4262,15 +4535,15 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>_xlfn.XLOOKUP(I5,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I5,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, -1, -1</v>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4279,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4294,15 +4567,15 @@
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <f>_xlfn.XLOOKUP(I6,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I6,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, -1, 0</v>
+        <v>0, -2, -1, -1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4311,30 +4584,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <f>_xlfn.XLOOKUP(I7,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I7,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>-4, 0, 0, 0</v>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4343,13 +4616,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4361,12 +4634,12 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>_xlfn.XLOOKUP(I8,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I8,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <v>-4, 0, 0, 0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4375,13 +4648,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4393,12 +4666,12 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>_xlfn.XLOOKUP(I9,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I9,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>-1, 0, 0, 0</v>
+        <v>-3, 0, 0, 0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4407,13 +4680,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4425,12 +4698,12 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>_xlfn.XLOOKUP(I10,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I10,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4439,13 +4712,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4457,12 +4730,12 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>_xlfn.XLOOKUP(I11,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I11,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="0"/>
-        <v>1, 0, 0, 0</v>
+        <v>-1, 0, 0, 0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4471,13 +4744,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4489,12 +4762,12 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>_xlfn.XLOOKUP(I12,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I12,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4503,13 +4776,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4521,12 +4794,12 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>_xlfn.XLOOKUP(I13,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I13,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="0"/>
-        <v>4, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4535,13 +4808,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4553,12 +4826,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>_xlfn.XLOOKUP(I14,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I14,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4567,16 +4840,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4585,12 +4858,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>_xlfn.XLOOKUP(I15,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I15,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="0"/>
-        <v>-4, -1, 0, 0</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4599,30 +4872,30 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <f>_xlfn.XLOOKUP(I16,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I16,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
-        <v>-2, -1, -1, 0</v>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4631,16 +4904,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4649,12 +4922,12 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>_xlfn.XLOOKUP(I17,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I17,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
-        <v>-1, -1, 0, 0</v>
+        <f t="shared" ref="P17" si="2">_xlfn.CONCAT(D17,", ",E17,", ",F17,", ",G17)</f>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4663,30 +4936,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E18">
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <f>_xlfn.XLOOKUP(I18,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I18,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1</v>
+        <v>-4, -1, 0, 0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4695,30 +4968,30 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E19">
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f>_xlfn.XLOOKUP(I19,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I19,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="0"/>
-        <v>1, -1, 0, 0</v>
+        <v>-2, -1, -1, 0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4727,30 +5000,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <f>_xlfn.XLOOKUP(I20,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I20,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, -1, 0</v>
+        <v>-1, -1, 0, 0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4759,30 +5032,30 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21">
-        <f>_xlfn.XLOOKUP(I21,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I21,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="0"/>
-        <v>4, -1, 0, 0</v>
+        <v>0, -1, -1, -1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4791,30 +5064,30 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <f>_xlfn.XLOOKUP(I22,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I22,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1</v>
+        <v>1, -1, 0, 0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4823,30 +5096,30 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <f>_xlfn.XLOOKUP(I23,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I23,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4855,16 +5128,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4873,12 +5146,12 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>_xlfn.XLOOKUP(I24,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I24,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" ref="P24:P25" si="2">_xlfn.CONCAT(D24,", ",E24,", ",F24,", ",G24)</f>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>4, -1, 0, 0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4887,30 +5160,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H25">
-        <f>_xlfn.XLOOKUP(I25,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I25,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="2"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, -1, -1, -1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4919,10 +5192,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>-2</v>
@@ -4937,11 +5210,11 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>_xlfn.XLOOKUP(I26,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I26,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ref="P26:P29" si="3">_xlfn.CONCAT(D26,", ",E26,", ",F26,", ",G26)</f>
+        <f t="shared" si="0"/>
         <v>-2, 0, 0, 0</v>
       </c>
     </row>
@@ -4951,13 +5224,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4969,12 +5242,12 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>_xlfn.XLOOKUP(I27,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I27,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="3"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4983,13 +5256,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5001,12 +5274,12 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>_xlfn.XLOOKUP(I28,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I28,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="3"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5015,13 +5288,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5033,12 +5306,12 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>_xlfn.XLOOKUP(I29,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I29,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="3"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5047,10 +5320,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -5065,11 +5338,11 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>_xlfn.XLOOKUP(I30,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I30,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" ref="P30:P46" si="4">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
+        <f t="shared" si="0"/>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
@@ -5079,30 +5352,30 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <f>_xlfn.XLOOKUP(I31,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I31,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="4"/>
-        <v>0, -2, -2, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5111,30 +5384,30 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="12">
-        <v>-1</v>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
-        <f>_xlfn.XLOOKUP(I32,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I32,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="4"/>
-        <v>0, -2, 0, -1</v>
+        <f t="shared" si="0"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5143,30 +5416,30 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="12">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <f>_xlfn.XLOOKUP(I33,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I33,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="4"/>
-        <v>2, -1, -1, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5175,30 +5448,30 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34">
-        <f>_xlfn.XLOOKUP(I34,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I34,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="4"/>
-        <v>2, -1, 0, -1</v>
+        <f t="shared" si="0"/>
+        <v>0, -2, -2, 0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5207,30 +5480,30 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="G35" s="12">
+        <v>-1</v>
       </c>
       <c r="H35">
-        <f>_xlfn.XLOOKUP(I35,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I35,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="4"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, -2, 0, -1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5239,13 +5512,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -5257,12 +5530,12 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f>_xlfn.XLOOKUP(I36,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I36,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="4"/>
-        <v>3, -1, -1, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5271,30 +5544,30 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>0</v>
+      <c r="G37" s="12">
+        <v>-1</v>
       </c>
       <c r="H37">
-        <f>_xlfn.XLOOKUP(I37,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I37,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="4"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5303,16 +5576,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5321,12 +5594,12 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>_xlfn.XLOOKUP(I38,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I38,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="4"/>
-        <v>3, -1, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5335,16 +5608,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="12">
         <v>-1</v>
@@ -5353,12 +5626,12 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f>_xlfn.XLOOKUP(I39,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I39,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="4"/>
-        <v>0, -2, -1, 0</v>
+        <f t="shared" si="0"/>
+        <v>3, -1, -1, 0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5367,30 +5640,30 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="12">
-        <v>-1</v>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <f>_xlfn.XLOOKUP(I40,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I40,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="4"/>
-        <v>0, -2, 0, -1</v>
+        <f t="shared" si="0"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5399,30 +5672,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="12">
+        <v>3</v>
+      </c>
+      <c r="E41">
         <v>-1</v>
       </c>
-      <c r="F41" s="12">
-        <v>-1</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <f>_xlfn.XLOOKUP(I41,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I41,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="4"/>
-        <v>2, -1, -1, 0</v>
+        <f t="shared" si="0"/>
+        <v>3, -1, 0, 0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5431,30 +5704,30 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>-2</v>
+      </c>
+      <c r="F42" s="12">
         <v>-1</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>-1</v>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="H42">
-        <f>_xlfn.XLOOKUP(I42,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I42,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="4"/>
-        <v>2, -1, 0, -1</v>
+        <f t="shared" si="0"/>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5463,30 +5736,30 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="G43" s="12">
+        <v>-1</v>
       </c>
       <c r="H43">
-        <f>_xlfn.XLOOKUP(I43,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I43,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="4"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, -2, 0, -1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5495,13 +5768,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="12">
         <v>-1</v>
@@ -5513,12 +5786,12 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>_xlfn.XLOOKUP(I44,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I44,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="4"/>
-        <v>3, -1, -1, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5527,30 +5800,30 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>-1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
+      <c r="G45" s="12">
+        <v>-1</v>
       </c>
       <c r="H45">
-        <f>_xlfn.XLOOKUP(I45,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I45,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="4"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5559,16 +5832,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" s="12">
-        <v>-1</v>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5577,12 +5850,12 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>_xlfn.XLOOKUP(I46,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I46,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="4"/>
-        <v>3, -1, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5591,30 +5864,30 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E47" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="12">
+        <v>-1</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <f>_xlfn.XLOOKUP(I47,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I47,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>3, -1, -1, 0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5623,30 +5896,30 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <f>_xlfn.XLOOKUP(I48,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I48,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5655,62 +5928,62 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E49" s="12">
+        <v>-1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <f>_xlfn.XLOOKUP(I49,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I49,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P49" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C50">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <f>_xlfn.XLOOKUP(I50,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I50,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P50" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -5719,30 +5992,30 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <f>_xlfn.XLOOKUP(I51,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I51,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -5751,30 +6024,30 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C52">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <f>_xlfn.XLOOKUP(I52,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I52,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" ref="P52:P75" si="5">_xlfn.CONCAT(D52,", ",E52,", ",F52,", ",G52)</f>
-        <v>-4, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -5783,30 +6056,30 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C53">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <f>_xlfn.XLOOKUP(I53,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I53,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -5815,30 +6088,30 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C54">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <f>_xlfn.XLOOKUP(I54,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I54,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="5"/>
-        <v>-1, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -5847,30 +6120,30 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <f>_xlfn.XLOOKUP(I55,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I55,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -5879,13 +6152,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C56">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5897,12 +6170,12 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f>_xlfn.XLOOKUP(I56,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I56,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="5"/>
-        <v>1, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-4, 0, 0, 0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -5911,13 +6184,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C57">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5929,12 +6202,12 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f>_xlfn.XLOOKUP(I57,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I57,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-3, 0, 0, 0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -5943,13 +6216,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5961,12 +6234,12 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f>_xlfn.XLOOKUP(I58,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I58,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="5"/>
-        <v>4, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -5975,13 +6248,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5993,12 +6266,12 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f>_xlfn.XLOOKUP(I59,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I59,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-1, 0, 0, 0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6007,16 +6280,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C60">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -6025,12 +6298,12 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f>_xlfn.XLOOKUP(I60,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I60,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="5"/>
-        <v>-4, 1, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6039,30 +6312,30 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <f>_xlfn.XLOOKUP(I61,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I61,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 1, 1, 0</v>
+        <f t="shared" si="0"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6071,16 +6344,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6089,12 +6362,12 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f>_xlfn.XLOOKUP(I62,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I62,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="5"/>
-        <v>-1, 1, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6103,30 +6376,30 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C63">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <f>_xlfn.XLOOKUP(I63,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I63,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 1, 1, 1</v>
+        <f t="shared" si="0"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6135,16 +6408,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="C64">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6153,12 +6426,12 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f>_xlfn.XLOOKUP(I64,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I64,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="5"/>
-        <v>1, 1, 0, 0</v>
+        <f t="shared" ref="P64:P65" si="3">_xlfn.CONCAT(D64,", ",E64,", ",F64,", ",G64)</f>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6167,30 +6440,30 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="C65">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <f>_xlfn.XLOOKUP(I65,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I65,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 1, 1, 0</v>
+        <f t="shared" si="3"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6199,13 +6472,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6217,12 +6490,12 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f>_xlfn.XLOOKUP(I66,$B$2:$B$47,$A$2:$A$47,65535)</f>
+        <f>_xlfn.XLOOKUP(I66,$B$2:$B$50,$A$2:$A$50,65535)</f>
         <v>65535</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="5"/>
-        <v>4, 1, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-4, 1, 0, 0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6231,13 +6504,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6246,2042 +6519,4930 @@
         <v>1</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>_xlfn.XLOOKUP(I67,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="0"/>
+        <v>-2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="4">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="H67">
-        <f>_xlfn.XLOOKUP(I67,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P67" t="str">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>_xlfn.XLOOKUP(I68,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="0"/>
+        <v>-1, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f>_xlfn.XLOOKUP(I69,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" ref="P69:P81" si="5">_xlfn.CONCAT(D69,", ",E69,", ",F69,", ",G69)</f>
+        <v>0, 1, 1, 1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>_xlfn.XLOOKUP(I70,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="5"/>
+        <v>1, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>_xlfn.XLOOKUP(I71,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>_xlfn.XLOOKUP(I72,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="5"/>
+        <v>4, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f>_xlfn.XLOOKUP(I73,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P73" t="str">
         <f t="shared" si="5"/>
         <v>0, 1, 1, 1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" ref="A68:A125" si="6">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C68">
-        <v>43</v>
-      </c>
-      <c r="D68">
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
         <v>-2</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f>_xlfn.XLOOKUP(I68,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P68" t="str">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>_xlfn.XLOOKUP(I74,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P74" t="str">
         <f t="shared" si="5"/>
         <v>-2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C69">
-        <v>43</v>
-      </c>
-      <c r="D69">
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75">
         <v>-2</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f>_xlfn.XLOOKUP(I69,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P69" t="str">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>_xlfn.XLOOKUP(I75,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P75" t="str">
         <f t="shared" si="5"/>
         <v>-2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C70">
-        <v>44</v>
-      </c>
-      <c r="D70">
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="D76">
         <v>-2</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f>_xlfn.XLOOKUP(I70,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P70" t="str">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>_xlfn.XLOOKUP(I76,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P76" t="str">
         <f t="shared" si="5"/>
         <v>-2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C71">
-        <v>44</v>
-      </c>
-      <c r="D71">
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77">
         <v>-2</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f>_xlfn.XLOOKUP(I71,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P71" t="str">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>_xlfn.XLOOKUP(I77,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P77" t="str">
         <f t="shared" si="5"/>
         <v>-2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72">
-        <v>43</v>
-      </c>
-      <c r="D72">
+      <c r="C78">
+        <v>13</v>
+      </c>
+      <c r="D78">
         <v>2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f>_xlfn.XLOOKUP(I72,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P72" t="str">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>_xlfn.XLOOKUP(I78,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P78" t="str">
         <f t="shared" si="5"/>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C73">
-        <v>43</v>
-      </c>
-      <c r="D73">
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79">
         <v>2</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f>_xlfn.XLOOKUP(I73,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P73" t="str">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>_xlfn.XLOOKUP(I79,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P79" t="str">
         <f t="shared" si="5"/>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C74">
-        <v>44</v>
-      </c>
-      <c r="D74">
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80">
         <v>2</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f>_xlfn.XLOOKUP(I74,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P74" t="str">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>_xlfn.XLOOKUP(I80,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P80" t="str">
         <f t="shared" si="5"/>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C75">
-        <v>44</v>
-      </c>
-      <c r="D75">
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81">
         <v>2</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f>_xlfn.XLOOKUP(I75,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P75" t="str">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>_xlfn.XLOOKUP(I81,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P81" t="str">
         <f t="shared" si="5"/>
         <v>2, 0, 0, 0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C76">
-        <v>42</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>2</v>
       </c>
-      <c r="F76">
+      <c r="F82">
         <v>1</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f>_xlfn.XLOOKUP(I76,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P76" t="str">
-        <f t="shared" ref="P76" si="7">_xlfn.CONCAT(D76,", ",E76,", ",F76,", ",G76)</f>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>_xlfn.XLOOKUP(I82,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" ref="P82" si="6">_xlfn.CONCAT(D82,", ",E82,", ",F82,", ",G82)</f>
         <v>0, 2, 1, 0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C77">
-        <v>42</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>2</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>1</v>
       </c>
-      <c r="H77">
-        <f>_xlfn.XLOOKUP(I77,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P77" t="str">
-        <f t="shared" ref="P77:P78" si="8">_xlfn.CONCAT(D77,", ",E77,", ",F77,", ",G77)</f>
+      <c r="H83">
+        <f>_xlfn.XLOOKUP(I83,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" ref="P83:P84" si="7">_xlfn.CONCAT(D83,", ",E83,", ",F83,", ",G83)</f>
         <v>0, 2, 0, 1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C78">
-        <v>42</v>
-      </c>
-      <c r="D78">
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="E84">
         <v>1</v>
       </c>
-      <c r="F78">
+      <c r="F84">
         <v>1</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f>_xlfn.XLOOKUP(I78,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P78" t="str">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>_xlfn.XLOOKUP(I84,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="7"/>
+        <v>2, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f>_xlfn.XLOOKUP(I85,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" ref="P85:P88" si="8">_xlfn.CONCAT(D85,", ",E85,", ",F85,", ",G85)</f>
+        <v>2, 1, 0, 1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>_xlfn.XLOOKUP(I86,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P86" t="str">
         <f t="shared" si="8"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>_xlfn.XLOOKUP(I87,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="8"/>
+        <v>3, 1, 1, 0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>_xlfn.XLOOKUP(I88,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="8"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>_xlfn.XLOOKUP(I89,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" ref="P89:P96" si="9">_xlfn.CONCAT(D89,", ",E89,", ",F89,", ",G89)</f>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>_xlfn.XLOOKUP(I90,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="9"/>
+        <v>0, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f>_xlfn.XLOOKUP(I91,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="9"/>
+        <v>0, 2, 0, 1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>_xlfn.XLOOKUP(I92,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="9"/>
         <v>2, 1, 1, 0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79">
-        <v>42</v>
-      </c>
-      <c r="D79">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
-      <c r="E79">
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>1</v>
       </c>
-      <c r="H79">
-        <f>_xlfn.XLOOKUP(I79,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P79" t="str">
-        <f t="shared" ref="P79:P82" si="9">_xlfn.CONCAT(D79,", ",E79,", ",F79,", ",G79)</f>
+      <c r="H93">
+        <f>_xlfn.XLOOKUP(I93,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="9"/>
         <v>2, 1, 0, 1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80">
-        <v>42</v>
-      </c>
-      <c r="D80">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
         <v>3</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <f>_xlfn.XLOOKUP(I80,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P80" t="str">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>_xlfn.XLOOKUP(I94,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P94" t="str">
         <f t="shared" si="9"/>
         <v>3, 0, 0, 0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81">
-        <v>42</v>
-      </c>
-      <c r="D81">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="E81">
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="F81">
+      <c r="F95">
         <v>1</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <f>_xlfn.XLOOKUP(I81,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P81" t="str">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>_xlfn.XLOOKUP(I95,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P95" t="str">
         <f t="shared" si="9"/>
         <v>3, 1, 1, 0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82">
-        <v>42</v>
-      </c>
-      <c r="D82">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f>_xlfn.XLOOKUP(I82,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P82" t="str">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>_xlfn.XLOOKUP(I96,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P96" t="str">
         <f t="shared" si="9"/>
         <v>3, 0, 0, 0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83">
-        <v>41</v>
-      </c>
-      <c r="D83">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
         <v>3</v>
       </c>
-      <c r="E83">
+      <c r="E97">
         <v>1</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f>_xlfn.XLOOKUP(I83,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P83" t="str">
-        <f t="shared" ref="P83:P90" si="10">_xlfn.CONCAT(D83,", ",E83,", ",F83,", ",G83)</f>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>_xlfn.XLOOKUP(I97,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" ref="P97" si="10">_xlfn.CONCAT(D97,", ",E97,", ",F97,", ",G97)</f>
         <v>3, 1, 0, 0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84">
-        <v>41</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+    <row r="98" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>_xlfn.XLOOKUP(I98,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P98" t="str">
+        <f>_xlfn.CONCAT(D98,", ",E98,", ",F98,", ",G98)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>2</v>
       </c>
-      <c r="F84">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>_xlfn.XLOOKUP(I99,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" ref="P99:P110" si="11">_xlfn.CONCAT(D99,", ",E99,", ",F99,", ",G99)</f>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>_xlfn.XLOOKUP(I100,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="11"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>_xlfn.XLOOKUP(I101,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="11"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102">
         <v>1</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f>_xlfn.XLOOKUP(I84,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P84" t="str">
-        <f t="shared" si="10"/>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>_xlfn.XLOOKUP(I102,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="11"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>_xlfn.XLOOKUP(I103,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="11"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>_xlfn.XLOOKUP(I104,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="11"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>_xlfn.XLOOKUP(I105,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="11"/>
+        <v>2, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f>_xlfn.XLOOKUP(I106,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="11"/>
+        <v>2, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>_xlfn.XLOOKUP(I107,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="11"/>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>_xlfn.XLOOKUP(I108,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="11"/>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>_xlfn.XLOOKUP(I109,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="11"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>_xlfn.XLOOKUP(I110,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="11"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f>_xlfn.XLOOKUP(I111,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" ref="P111:P130" si="12">_xlfn.CONCAT(D111,", ",E111,", ",F111,", ",G111)</f>
         <v>0, 2, 1, 0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85">
-        <v>41</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <f>_xlfn.XLOOKUP(I112,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="12"/>
+        <v>1, 3, 0, 1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="D113">
         <v>1</v>
       </c>
-      <c r="H85">
-        <f>_xlfn.XLOOKUP(I85,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P85" t="str">
-        <f t="shared" si="10"/>
-        <v>0, 2, 0, 1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86">
-        <v>42</v>
-      </c>
-      <c r="D86">
+      <c r="E113">
         <v>2</v>
       </c>
-      <c r="E86">
+      <c r="F113">
         <v>1</v>
       </c>
-      <c r="F86">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>_xlfn.XLOOKUP(I113,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="12"/>
+        <v>1, 2, 1, 0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f>_xlfn.XLOOKUP(I114,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="12"/>
+        <v>2, 3, 0, 0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
         <v>1</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f>_xlfn.XLOOKUP(I86,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P86" t="str">
-        <f t="shared" si="10"/>
-        <v>2, 1, 1, 0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87">
-        <v>42</v>
-      </c>
-      <c r="D87">
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <f>_xlfn.XLOOKUP(I115,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="12"/>
+        <v>2, 2, 1, 1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
         <v>2</v>
       </c>
-      <c r="E87">
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>_xlfn.XLOOKUP(I116,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="12"/>
+        <v>2, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
         <v>1</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H117">
+        <f>_xlfn.XLOOKUP(I117,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" ref="P117" si="13">_xlfn.CONCAT(D117,", ",E117,", ",F117,", ",G117)</f>
+        <v>1, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
         <v>1</v>
       </c>
-      <c r="H87">
-        <f>_xlfn.XLOOKUP(I87,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P87" t="str">
-        <f t="shared" si="10"/>
-        <v>2, 1, 0, 1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88">
-        <v>42</v>
-      </c>
-      <c r="D88">
+      <c r="E118">
         <v>3</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <f>_xlfn.XLOOKUP(I88,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P88" t="str">
-        <f t="shared" si="10"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89">
-        <v>42</v>
-      </c>
-      <c r="D89">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H118">
+        <f>_xlfn.XLOOKUP(I118,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" ref="P118" si="14">_xlfn.CONCAT(D118,", ",E118,", ",F118,", ",G118)</f>
+        <v>1, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>3</v>
       </c>
-      <c r="E89">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H119">
+        <f>_xlfn.XLOOKUP(I119,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f>_xlfn.XLOOKUP(I120,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 2, -1, 0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f>_xlfn.XLOOKUP(I121,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="12"/>
+        <v>0, 3, 0, 0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>-1</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G122">
+        <v>-1</v>
+      </c>
+      <c r="H122">
+        <f>_xlfn.XLOOKUP(I122,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="12"/>
+        <v>-1, 2, -1, -1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123">
         <v>1</v>
       </c>
-      <c r="F89">
+      <c r="D123">
+        <v>-1</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f>_xlfn.XLOOKUP(I123,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="12"/>
+        <v>-1, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>-2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f>_xlfn.XLOOKUP(I124,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="12"/>
+        <v>-2, 2, -1, 0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125">
         <v>1</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f>_xlfn.XLOOKUP(I89,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P89" t="str">
-        <f t="shared" si="10"/>
-        <v>3, 1, 1, 0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90">
-        <v>42</v>
-      </c>
-      <c r="D90">
+      <c r="D125">
+        <v>-2</v>
+      </c>
+      <c r="E125">
         <v>3</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f>_xlfn.XLOOKUP(I90,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P90" t="str">
-        <f t="shared" si="10"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91">
-        <v>41</v>
-      </c>
-      <c r="D91">
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H125">
+        <f>_xlfn.XLOOKUP(I125,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P125" t="str">
+        <f t="shared" si="12"/>
+        <v>-2, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>-2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f>_xlfn.XLOOKUP(I126,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" si="12"/>
+        <v>-2, 2, -1, 0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127">
         <v>3</v>
       </c>
-      <c r="E91">
+      <c r="D127">
+        <v>-1</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f>_xlfn.XLOOKUP(I127,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P127" t="str">
+        <f t="shared" si="12"/>
+        <v>-1, 3, 0, 0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>-1</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G128">
+        <v>-1</v>
+      </c>
+      <c r="H128">
+        <f>_xlfn.XLOOKUP(I128,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P128" t="str">
+        <f t="shared" si="12"/>
+        <v>-1, 2, -1, -1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129">
         <v>1</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f>_xlfn.XLOOKUP(I91,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P91" t="str">
-        <f t="shared" ref="P91" si="11">_xlfn.CONCAT(D91,", ",E91,", ",F91,", ",G91)</f>
-        <v>3, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f>_xlfn.XLOOKUP(I92,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P92" t="str">
-        <f>_xlfn.CONCAT(D92,", ",E92,", ",F92,", ",G92)</f>
-        <v>0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
         <v>2</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f>_xlfn.XLOOKUP(I93,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P93" t="str">
-        <f t="shared" ref="P93:P104" si="12">_xlfn.CONCAT(D93,", ",E93,", ",F93,", ",G93)</f>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f>_xlfn.XLOOKUP(I129,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P129" t="str">
+        <f t="shared" ref="P129" si="15">_xlfn.CONCAT(D129,", ",E129,", ",F129,", ",G129)</f>
         <v>0, 2, 0, 0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
         <v>2</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <f>_xlfn.XLOOKUP(I94,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P94" t="str">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f>_xlfn.XLOOKUP(I130,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P130" t="str">
         <f t="shared" si="12"/>
         <v>0, 2, 0, 0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="131" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f>_xlfn.XLOOKUP(I131,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P131" t="str">
+        <f>_xlfn.CONCAT(D131,", ",E131,", ",F131,", ",G131)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" ref="A132:A195" si="16">A131+1</f>
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>-2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f>_xlfn.XLOOKUP(I132,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" ref="P132:P219" si="17">_xlfn.CONCAT(D132,", ",E132,", ",F132,", ",G132)</f>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="16"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>-2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f>_xlfn.XLOOKUP(I133,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" si="16"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>-2</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f>_xlfn.XLOOKUP(I134,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="16"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>-2</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f>_xlfn.XLOOKUP(I135,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="16"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>-2</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f>_xlfn.XLOOKUP(I136,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="16"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>-2</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f>_xlfn.XLOOKUP(I137,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="16"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>-1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f>_xlfn.XLOOKUP(I138,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P138" t="str">
+        <f t="shared" si="17"/>
+        <v>2, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="16"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>-1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f>_xlfn.XLOOKUP(I139,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P139" t="str">
+        <f t="shared" si="17"/>
+        <v>2, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="16"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>-1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f>_xlfn.XLOOKUP(I140,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" si="17"/>
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="16"/>
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>-1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f>_xlfn.XLOOKUP(I141,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P141" t="str">
+        <f t="shared" si="17"/>
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="16"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f>_xlfn.XLOOKUP(I142,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P142" t="str">
+        <f t="shared" si="17"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f>_xlfn.XLOOKUP(I143,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P143" t="str">
+        <f t="shared" si="17"/>
+        <v>3, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="16"/>
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>-2</v>
+      </c>
+      <c r="F144" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f>_xlfn.XLOOKUP(I144,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P144" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="16"/>
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>-3</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H145">
+        <f>_xlfn.XLOOKUP(I145,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P145" t="str">
+        <f t="shared" si="17"/>
+        <v>1, -3, 0, -1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="16"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>-2</v>
+      </c>
+      <c r="F146" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f>_xlfn.XLOOKUP(I146,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P146" t="str">
+        <f t="shared" si="17"/>
+        <v>1, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="16"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>-3</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f>_xlfn.XLOOKUP(I147,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P147" t="str">
+        <f t="shared" si="17"/>
+        <v>2, -3, 0, 0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="16"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>-2</v>
+      </c>
+      <c r="F148" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G148">
+        <v>-1</v>
+      </c>
+      <c r="H148">
+        <f>_xlfn.XLOOKUP(I148,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P148" t="str">
+        <f t="shared" si="17"/>
+        <v>2, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="16"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>-2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f>_xlfn.XLOOKUP(I149,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P149" t="str">
+        <f t="shared" si="17"/>
+        <v>2, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="16"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>-2</v>
+      </c>
+      <c r="F150" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f>_xlfn.XLOOKUP(I150,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P150" t="str">
+        <f t="shared" si="17"/>
+        <v>1, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="16"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>-3</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H151">
+        <f>_xlfn.XLOOKUP(I151,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P151" t="str">
+        <f t="shared" si="17"/>
+        <v>1, -3, 0, -1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>-2</v>
+      </c>
+      <c r="F152" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f>_xlfn.XLOOKUP(I152,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P152" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>-3</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f>_xlfn.XLOOKUP(I153,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P153" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -3, 0, 0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="16"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>-2</v>
+      </c>
+      <c r="F154" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G154">
+        <v>-1</v>
+      </c>
+      <c r="H154">
+        <f>_xlfn.XLOOKUP(I154,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P154" t="str">
+        <f t="shared" si="17"/>
+        <v>0, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="16"/>
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>-1</v>
+      </c>
+      <c r="E155">
+        <v>-2</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f>_xlfn.XLOOKUP(I155,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P155" t="str">
+        <f t="shared" si="17"/>
+        <v>-1, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="16"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>-1</v>
+      </c>
+      <c r="E156">
+        <v>-2</v>
+      </c>
+      <c r="F156" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f>_xlfn.XLOOKUP(I156,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P156" t="str">
+        <f t="shared" si="17"/>
+        <v>-1, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="16"/>
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>-2</v>
+      </c>
+      <c r="E157">
+        <v>-3</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H157">
+        <f>_xlfn.XLOOKUP(I157,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P157" t="str">
+        <f t="shared" si="17"/>
+        <v>-2, -3, 0, -1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="16"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>-2</v>
+      </c>
+      <c r="E158">
+        <v>-2</v>
+      </c>
+      <c r="F158" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f>_xlfn.XLOOKUP(I158,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P158" t="str">
+        <f t="shared" si="17"/>
+        <v>-2, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="16"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>-2</v>
+      </c>
+      <c r="E159">
+        <v>-3</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f>_xlfn.XLOOKUP(I159,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P159" t="str">
+        <f t="shared" si="17"/>
+        <v>-2, -3, 0, 0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="16"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>-1</v>
+      </c>
+      <c r="E160">
+        <v>-2</v>
+      </c>
+      <c r="F160" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G160">
+        <v>-1</v>
+      </c>
+      <c r="H160">
+        <f>_xlfn.XLOOKUP(I160,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P160" t="str">
+        <f t="shared" si="17"/>
+        <v>-1, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="16"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>-1</v>
+      </c>
+      <c r="E161">
+        <v>-2</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f>_xlfn.XLOOKUP(I161,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P161" t="str">
+        <f t="shared" si="17"/>
+        <v>-1, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>-2</v>
+      </c>
+      <c r="F162" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G162">
+        <v>-1</v>
+      </c>
+      <c r="H162">
+        <f>_xlfn.XLOOKUP(I162,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P162" t="str">
+        <f t="shared" ref="P162:P163" si="18">_xlfn.CONCAT(D162,", ",E162,", ",F162,", ",G162)</f>
+        <v>0, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="16"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>-2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f>_xlfn.XLOOKUP(I163,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P163" t="str">
+        <f t="shared" si="18"/>
+        <v>0, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="16"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f>_xlfn.XLOOKUP(I164,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P164" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="16"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f>_xlfn.XLOOKUP(I165,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="16"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f>_xlfn.XLOOKUP(I166,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="16"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f>_xlfn.XLOOKUP(I167,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="16"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f>_xlfn.XLOOKUP(I168,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P168" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="16"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>-1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f>_xlfn.XLOOKUP(I169,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P169" t="str">
+        <f t="shared" si="17"/>
+        <v>-1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="16"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f>_xlfn.XLOOKUP(I170,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P170" t="str">
+        <f t="shared" si="17"/>
+        <v>1, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f>_xlfn.XLOOKUP(I171,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P171" t="str">
+        <f t="shared" ref="P171" si="19">_xlfn.CONCAT(D171,", ",E171,", ",F171,", ",G171)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f>_xlfn.XLOOKUP(I172,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P172" t="str">
+        <f t="shared" ref="P172:P173" si="20">_xlfn.CONCAT(D172,", ",E172,", ",F172,", ",G172)</f>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f>_xlfn.XLOOKUP(I173,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P173" t="str">
+        <f t="shared" si="20"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f>_xlfn.XLOOKUP(I174,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P174" t="str">
+        <f t="shared" ref="P174:P177" si="21">_xlfn.CONCAT(D174,", ",E174,", ",F174,", ",G174)</f>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f>_xlfn.XLOOKUP(I175,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P175" t="str">
+        <f t="shared" si="21"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="16"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f>_xlfn.XLOOKUP(I176,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P176" t="str">
+        <f t="shared" si="21"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f>_xlfn.XLOOKUP(I177,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P177" t="str">
+        <f t="shared" si="21"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="16"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f>_xlfn.XLOOKUP(I178,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P178" t="str">
+        <f t="shared" ref="P178:P183" si="22">_xlfn.CONCAT(D178,", ",E178,", ",F178,", ",G178)</f>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="16"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f>_xlfn.XLOOKUP(I179,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P179" t="str">
+        <f t="shared" si="22"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="16"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f>_xlfn.XLOOKUP(I180,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P180" t="str">
+        <f t="shared" si="22"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="16"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f>_xlfn.XLOOKUP(I181,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P181" t="str">
+        <f t="shared" si="22"/>
+        <v>0, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f>_xlfn.XLOOKUP(I182,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P182" t="str">
+        <f t="shared" si="22"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="16"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f>_xlfn.XLOOKUP(I183,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P183" t="str">
+        <f t="shared" si="22"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="16"/>
         <v>182</v>
       </c>
-      <c r="C95">
+      <c r="B184" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f>_xlfn.XLOOKUP(I184,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P184" t="str">
+        <f t="shared" ref="P184:P199" si="23">_xlfn.CONCAT(D184,", ",E184,", ",F184,", ",G184)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="16"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f>_xlfn.XLOOKUP(I185,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P185" t="str">
+        <f t="shared" si="23"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="16"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f>_xlfn.XLOOKUP(I186,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P186" t="str">
+        <f t="shared" ref="P186" si="24">_xlfn.CONCAT(D186,", ",E186,", ",F186,", ",G186)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f>_xlfn.XLOOKUP(I187,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P187" t="str">
+        <f t="shared" si="23"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="16"/>
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C188">
         <v>2</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>-1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f>_xlfn.XLOOKUP(I188,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P188" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="16"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C189">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <f>_xlfn.XLOOKUP(I95,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P95" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, 0, 0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>-1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f>_xlfn.XLOOKUP(I189,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P189" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="16"/>
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>-1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f>_xlfn.XLOOKUP(I190,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P190" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="16"/>
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>-1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <f>_xlfn.XLOOKUP(I191,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P191" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="16"/>
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>-1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f>_xlfn.XLOOKUP(I192,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P192" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="16"/>
         <v>191</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="B193" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193">
         <v>2</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f>_xlfn.XLOOKUP(I96,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P96" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, 0, 0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>-1</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f>_xlfn.XLOOKUP(I193,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P193" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="16"/>
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>-1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f>_xlfn.XLOOKUP(I194,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P194" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="16"/>
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>-1</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f>_xlfn.XLOOKUP(I195,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P195" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" ref="A196:A219" si="25">A195+1</f>
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C196">
         <v>2</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <f>_xlfn.XLOOKUP(I97,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P97" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, 0, 0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>-1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f>_xlfn.XLOOKUP(I196,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P196" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="25"/>
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C197">
         <v>2</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <f>_xlfn.XLOOKUP(I98,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P98" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, 0, 0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <f>_xlfn.XLOOKUP(I99,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P99" t="str">
-        <f t="shared" si="12"/>
-        <v>2, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <f>_xlfn.XLOOKUP(I100,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P100" t="str">
-        <f t="shared" si="12"/>
-        <v>2, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <f>_xlfn.XLOOKUP(I101,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P101" t="str">
-        <f t="shared" si="12"/>
-        <v>3, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <f>_xlfn.XLOOKUP(I102,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P102" t="str">
-        <f t="shared" si="12"/>
-        <v>3, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <f>_xlfn.XLOOKUP(I103,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P103" t="str">
-        <f t="shared" si="12"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <f>_xlfn.XLOOKUP(I104,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P104" t="str">
-        <f t="shared" si="12"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f t="shared" si="6"/>
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>-1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <f>_xlfn.XLOOKUP(I197,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P197" t="str">
+        <f t="shared" si="23"/>
+        <v>0, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="25"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f>_xlfn.XLOOKUP(I198,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P198" t="str">
+        <f t="shared" si="23"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="25"/>
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f>_xlfn.XLOOKUP(I199,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P199" t="str">
+        <f t="shared" si="23"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="25"/>
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <f>_xlfn.XLOOKUP(I200,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P200" t="str">
+        <f t="shared" ref="P200:P201" si="26">_xlfn.CONCAT(D200,", ",E200,", ",F200,", ",G200)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="25"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f>_xlfn.XLOOKUP(I201,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P201" t="str">
+        <f t="shared" si="26"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <f>_xlfn.XLOOKUP(I202,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P202" t="str">
+        <f t="shared" ref="P202:P210" si="27">_xlfn.CONCAT(D202,", ",E202,", ",F202,", ",G202)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="25"/>
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f>_xlfn.XLOOKUP(I203,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P203" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="25"/>
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <f>_xlfn.XLOOKUP(I204,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P204" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="25"/>
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <f>_xlfn.XLOOKUP(I205,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P205" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="25"/>
         <v>204</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <f>_xlfn.XLOOKUP(I105,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P105" t="str">
-        <f>_xlfn.CONCAT(D105,", ",E105,", ",F105,", ",G105)</f>
+      <c r="B206" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <f>_xlfn.XLOOKUP(I206,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P206" t="str">
+        <f t="shared" si="27"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <f t="shared" si="6"/>
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>-2</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <f>_xlfn.XLOOKUP(I106,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P106" t="str">
-        <f t="shared" ref="P106:P117" si="13">_xlfn.CONCAT(D106,", ",E106,", ",F106,", ",G106)</f>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>-2</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <f>_xlfn.XLOOKUP(I107,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P107" t="str">
-        <f t="shared" si="13"/>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>-2</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <f>_xlfn.XLOOKUP(I108,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P108" t="str">
-        <f t="shared" si="13"/>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>-2</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <f>_xlfn.XLOOKUP(I109,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P109" t="str">
-        <f t="shared" si="13"/>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <f t="shared" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>-2</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <f>_xlfn.XLOOKUP(I110,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P110" t="str">
-        <f t="shared" si="13"/>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <f t="shared" si="6"/>
-        <v>109</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>-2</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <f>_xlfn.XLOOKUP(I111,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P111" t="str">
-        <f t="shared" si="13"/>
-        <v>0, -2, 0, 0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+    <row r="207" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="25"/>
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <f>_xlfn.XLOOKUP(I207,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P207" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="25"/>
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <f>_xlfn.XLOOKUP(I208,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P208" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="25"/>
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <f>_xlfn.XLOOKUP(I209,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P209" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="25"/>
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <f>_xlfn.XLOOKUP(I210,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P210" t="str">
+        <f t="shared" si="27"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="25"/>
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <f>_xlfn.XLOOKUP(I211,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P211" t="str">
+        <f t="shared" ref="P211" si="28">_xlfn.CONCAT(D211,", ",E211,", ",F211,", ",G211)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="25"/>
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <f>_xlfn.XLOOKUP(I212,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P212" t="str">
+        <f t="shared" ref="P212:P213" si="29">_xlfn.CONCAT(D212,", ",E212,", ",F212,", ",G212)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="25"/>
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <f>_xlfn.XLOOKUP(I213,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P213" t="str">
+        <f t="shared" si="29"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="25"/>
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <f>_xlfn.XLOOKUP(I214,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P214" t="str">
+        <f t="shared" ref="P214:P217" si="30">_xlfn.CONCAT(D214,", ",E214,", ",F214,", ",G214)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="25"/>
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <f>_xlfn.XLOOKUP(I215,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P215" t="str">
+        <f t="shared" si="30"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="25"/>
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <f>_xlfn.XLOOKUP(I216,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P216" t="str">
+        <f t="shared" si="30"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="25"/>
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <f>_xlfn.XLOOKUP(I217,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P217" t="str">
+        <f t="shared" si="30"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="25"/>
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <f>_xlfn.XLOOKUP(I218,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P218" t="str">
+        <f t="shared" ref="P218" si="31">_xlfn.CONCAT(D218,", ",E218,", ",F218,", ",G218)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="25"/>
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>15</v>
+      </c>
+      <c r="E219">
         <v>-1</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <f>_xlfn.XLOOKUP(I112,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P112" t="str">
-        <f t="shared" si="13"/>
-        <v>2, -1, 0, 0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <f t="shared" si="6"/>
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <f>_xlfn.XLOOKUP(I219,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="J219">
+        <f>C219-C250</f>
+        <v>7</v>
+      </c>
+      <c r="K219">
+        <f>D219-D250</f>
+        <v>15</v>
+      </c>
+      <c r="L219">
+        <f>E219+E250</f>
         <v>-1</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <f>_xlfn.XLOOKUP(I113,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P113" t="str">
-        <f t="shared" si="13"/>
-        <v>2, -1, 0, 0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>3</v>
-      </c>
-      <c r="E114">
-        <v>-1</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <f>_xlfn.XLOOKUP(I114,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P114" t="str">
-        <f t="shared" si="13"/>
-        <v>3, -1, 0, 0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <f t="shared" si="6"/>
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115">
-        <v>-1</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <f>_xlfn.XLOOKUP(I115,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P115" t="str">
-        <f t="shared" si="13"/>
-        <v>3, -1, 0, 0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <f t="shared" si="6"/>
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <f>_xlfn.XLOOKUP(I116,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P116" t="str">
-        <f t="shared" si="13"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <f t="shared" si="6"/>
-        <v>115</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <f>_xlfn.XLOOKUP(I117,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P117" t="str">
-        <f t="shared" si="13"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <f t="shared" si="6"/>
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>4</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <f>_xlfn.XLOOKUP(I118,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P118" t="str">
-        <f>_xlfn.CONCAT(D118,", ",E118,", ",F118,", ",G118)</f>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>4</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <f>_xlfn.XLOOKUP(I119,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P119" t="str">
-        <f>_xlfn.CONCAT(D119,", ",E119,", ",F119,", ",G119)</f>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <f t="shared" si="6"/>
-        <v>118</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120">
-        <v>4</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <f>_xlfn.XLOOKUP(I120,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P120" t="str">
-        <f>_xlfn.CONCAT(D120,", ",E120,", ",F120,", ",G120)</f>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <f>_xlfn.XLOOKUP(I121,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P121" t="str">
-        <f>_xlfn.CONCAT(D121,", ",E121,", ",F121,", ",G121)</f>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <f>_xlfn.XLOOKUP(I122,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P122" t="str">
-        <f>_xlfn.CONCAT(D122,", ",E122,", ",F122,", ",G122)</f>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <f t="shared" si="6"/>
-        <v>121</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123">
-        <v>-1</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <f>_xlfn.XLOOKUP(I123,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P123" t="str">
-        <f>_xlfn.CONCAT(D123,", ",E123,", ",F123,", ",G123)</f>
-        <v>-1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <f>_xlfn.XLOOKUP(I124,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P124" t="str">
-        <f>_xlfn.CONCAT(D124,", ",E124,", ",F124,", ",G124)</f>
-        <v>1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <f t="shared" si="6"/>
-        <v>123</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125">
-        <v>7</v>
-      </c>
-      <c r="D125">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>-1</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <f>_xlfn.XLOOKUP(I125,$B$2:$B$47,$A$2:$A$47,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="J125">
-        <f>C125-C156</f>
-        <v>7</v>
-      </c>
-      <c r="K125">
-        <f>D125-D156</f>
-        <v>15</v>
-      </c>
-      <c r="L125">
-        <f>E125+E156</f>
-        <v>-1</v>
-      </c>
-      <c r="M125">
-        <f>F125+F156</f>
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <f>G125+G156</f>
-        <v>0</v>
-      </c>
-      <c r="P125" t="str">
-        <f t="shared" si="0"/>
+      <c r="M219">
+        <f>F219+F250</f>
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <f>G219+G250</f>
+        <v>0</v>
+      </c>
+      <c r="P219" t="str">
+        <f t="shared" si="17"/>
         <v>15, -1, 0, 0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C127" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C125),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 3, 4, 4, 3, 3, 4, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 1, 40, 41, 41, 42, 42, 42, 42, 42, 42, 42, 42, 42, 42, 41, 42, 42, 42, 42, 42, 42, 41, 43, 43, 44, 44, 43, 43, 44, 44, 42, 42, 42, 42, 42, 42, 42, 41, 41, 41, 42, 42, 42, 42, 42, 41, 0, 0, 3, 2, 1, 0, 1, 2, 3, 0, 1, 2, 3, 0, 0, 1, 2, 3, 0, 1, 2, 3, 0, 1, 2, 3, 1, 2, 3, 1, 2, 3, 0, 7};</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C128" t="str">
-        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H125),"};")</f>
-        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P125),"};")</f>
-        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 15, -1, 0, 0};</v>
-      </c>
-    </row>
-    <row r="145" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O145">
-        <v>2</v>
-      </c>
-      <c r="P145">
-        <v>1</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O146">
-        <v>2</v>
-      </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O147">
-        <v>2</v>
-      </c>
-      <c r="P147">
-        <v>1</v>
-      </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O148">
-        <v>2</v>
-      </c>
-      <c r="P148">
-        <v>1</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O149">
-        <v>2</v>
-      </c>
-      <c r="P149">
-        <v>2</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O150">
-        <v>2</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O151">
-        <v>1</v>
-      </c>
-      <c r="P151" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O152">
-        <v>1</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O154">
-        <v>1</v>
-      </c>
-      <c r="P154" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O156">
-        <v>1</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>0</v>
-      </c>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C221" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C219),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 5, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 3, 4, 4, 3, 3, 4, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 1, 10, 15, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 11, 12, 12, 12, 12, 12, 12, 11, 13, 13, 14, 14, 13, 13, 14, 14, 12, 12, 12, 12, 12, 12, 12, 11, 11, 11, 12, 12, 12, 12, 12, 11, 0, 0, 3, 2, 1, 0, 3, 2, 1, 0, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 1, 2, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 0, 1, 2, 3, 0, 1, 2, 3, 0, 1, 2, 3, 4, 5, 6, 7, 6, 5, 4, 4, 5, 6, 7, 6, 5, 4, 5, 6, 7, 6, 5, 4, 1, 2, 3, 1, 2, 3, 0, 0, 2, 2, 3, 3, 2, 2, 3, 3, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 3, 3, 2, 2, 3, 3, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7};</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C222" t="str">
+        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H219),"};")</f>
+        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C223" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P219),"};")</f>
+        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 2, 1, 0 , 1, 3, 0, 1 , 1, 2, 1, 0 , 2, 3, 0, 0 , 2, 2, 1, 1 , 2, 2, 0, 0 , 1, 3, 0, -1 , 1, 3, 0, -1 , 0, 3, 0, -1 , 0, 2, -1, 0 , 0, 3, 0, 0 , -1, 2, -1, -1 , -1, 2, 0, 0 , -2, 2, -1, 0 , -2, 3, 0, -1 , -2, 2, -1, 0 , -1, 3, 0, 0 , -1, 2, -1, -1 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, -2, -1, 0 , 1, -3, 0, -1 , 1, -2, -1, 0 , 2, -3, 0, 0 , 2, -2, -1, -1 , 2, -2, 0, 0 , 1, -2, -1, 0 , 1, -3, 0, -1 , 0, -2, -1, 0 , 0, -3, 0, 0 , 0, -2, -1, -1 , -1, -2, 0, 0 , -1, -2, -1, 0 , -2, -3, 0, -1 , -2, -2, -1, 0 , -2, -3, 0, 0 , -1, -2, -1, -1 , -1, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 0, 0, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 15, -1, 0, 0};</v>
+      </c>
+    </row>
+    <row r="244" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q244" s="12"/>
+    </row>
+    <row r="245" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P245" s="12"/>
+    </row>
+    <row r="246" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q246" s="12"/>
+    </row>
+    <row r="248" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P248" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bananas/Arrays_Only.xlsx
+++ b/Bananas/Arrays_Only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Bananas/Bananas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE5AFE-B03D-074A-98FB-5E8CEAFCC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F673CB0-5683-6040-85A7-A367CB960DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="1" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="320">
   <si>
     <t>Images</t>
   </si>
@@ -970,6 +970,57 @@
   </si>
   <si>
     <t>Player_Standing_Jump_LH_09</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_RH_10</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_RH_11</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_LH_10</t>
+  </si>
+  <si>
+    <t>Player_Standing_Jump_LH_11</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_RH_08</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_RH_09</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_RH_10</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_RH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Die_00</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Die_01</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Die_02</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Die_03</t>
+  </si>
+  <si>
+    <t>Enemy_Spider_Die_04</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_LH_08</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_LH_09</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_LH_10</t>
+  </si>
+  <si>
+    <t>Player_Running_Jump_LH_11</t>
   </si>
 </sst>
 </file>
@@ -4389,11 +4440,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q248"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A219"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4442,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>_xlfn.XLOOKUP(I2,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I2,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P2" t="str">
@@ -4474,17 +4525,17 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>_xlfn.XLOOKUP(I3,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I3,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P68" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
+        <f t="shared" ref="P3:P76" si="0">_xlfn.CONCAT(D3,", ",E3,", ",F3,", ",G3)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <f t="shared" ref="A4:A75" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4506,7 +4557,7 @@
         <v>-1</v>
       </c>
       <c r="H4">
-        <f>_xlfn.XLOOKUP(I4,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I4,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P4" t="str">
@@ -4538,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>_xlfn.XLOOKUP(I5,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I5,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P5" t="str">
@@ -4570,7 +4621,7 @@
         <v>-1</v>
       </c>
       <c r="H6">
-        <f>_xlfn.XLOOKUP(I6,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I6,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P6" t="str">
@@ -4602,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>_xlfn.XLOOKUP(I7,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I7,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P7" t="str">
@@ -4634,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>_xlfn.XLOOKUP(I8,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I8,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P8" t="str">
@@ -4666,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>_xlfn.XLOOKUP(I9,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I9,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P9" t="str">
@@ -4698,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>_xlfn.XLOOKUP(I10,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I10,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P10" t="str">
@@ -4730,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>_xlfn.XLOOKUP(I11,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I11,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P11" t="str">
@@ -4762,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>_xlfn.XLOOKUP(I12,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I12,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P12" t="str">
@@ -4794,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>_xlfn.XLOOKUP(I13,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I13,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P13" t="str">
@@ -4814,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4826,12 +4877,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>_xlfn.XLOOKUP(I14,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I14,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
-        <v>1, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4846,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4858,12 +4909,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>_xlfn.XLOOKUP(I15,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I15,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4878,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4890,12 +4941,12 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>_xlfn.XLOOKUP(I16,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I16,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
-        <v>3, 0, 0, 0</v>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4910,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4922,12 +4973,12 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>_xlfn.XLOOKUP(I17,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I17,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" ref="P17" si="2">_xlfn.CONCAT(D17,", ",E17,", ",F17,", ",G17)</f>
-        <v>4, 0, 0, 0</v>
+        <f t="shared" ref="P17:P18" si="2">_xlfn.CONCAT(D17,", ",E17,", ",F17,", ",G17)</f>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4936,16 +4987,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4954,12 +5005,12 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>_xlfn.XLOOKUP(I18,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I18,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
-        <v>-4, -1, 0, 0</v>
+        <f t="shared" si="2"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4968,30 +5019,30 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f>_xlfn.XLOOKUP(I19,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I19,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
-        <v>-2, -1, -1, 0</v>
+        <f t="shared" ref="P19" si="3">_xlfn.CONCAT(D19,", ",E19,", ",F19,", ",G19)</f>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5000,13 +5051,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -5018,12 +5069,12 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>_xlfn.XLOOKUP(I20,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I20,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
-        <v>-1, -1, 0, 0</v>
+        <v>-4, -1, 0, 0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5032,13 +5083,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -5047,15 +5098,15 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <f>_xlfn.XLOOKUP(I21,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I21,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="0"/>
-        <v>0, -1, -1, -1</v>
+        <v>-3, -1, -1, 0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -5064,13 +5115,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -5082,12 +5133,12 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>_xlfn.XLOOKUP(I22,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I22,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="0"/>
-        <v>1, -1, 0, 0</v>
+        <v>-2, -1, 0, 0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -5096,13 +5147,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -5111,15 +5162,15 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23">
-        <f>_xlfn.XLOOKUP(I23,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I23,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, -1, 0</v>
+        <v>-1, -1, -1, -1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -5128,30 +5179,30 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
+        <v>-2</v>
+      </c>
+      <c r="F24">
         <v>-1</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f>_xlfn.XLOOKUP(I24,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I24,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
-        <v>4, -1, 0, 0</v>
+        <f t="shared" ref="P24:P26" si="4">_xlfn.CONCAT(D24,", ",E24,", ",F24,", ",G24)</f>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -5160,30 +5211,30 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <f>_xlfn.XLOOKUP(I25,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I25,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
-        <v>0, -1, -1, -1</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -5192,30 +5243,30 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>-2</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26">
-        <f>_xlfn.XLOOKUP(I26,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I26,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="4"/>
+        <v>0, -2, -1, -1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -5224,17 +5275,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>-2</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -5242,12 +5293,12 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>_xlfn.XLOOKUP(I27,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I27,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" ref="P27:P31" si="5">_xlfn.CONCAT(D27,", ",E27,", ",F27,", ",G27)</f>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -5256,30 +5307,30 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <f>_xlfn.XLOOKUP(I28,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I28,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="5"/>
+        <v>1, -1, -1, 0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5288,16 +5339,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5306,12 +5357,12 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>_xlfn.XLOOKUP(I29,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I29,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="5"/>
+        <v>2, -1, 0, 0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5320,30 +5371,30 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
       <c r="E30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30">
-        <f>_xlfn.XLOOKUP(I30,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I30,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" ref="P30" si="6">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
+        <v>3, -1, -1, -1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5352,30 +5403,30 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H31">
-        <f>_xlfn.XLOOKUP(I31,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I31,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="5"/>
+        <v>4, -1, -1, -1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5384,13 +5435,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5402,12 +5453,12 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f>_xlfn.XLOOKUP(I32,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I32,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5416,13 +5467,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5434,12 +5485,12 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f>_xlfn.XLOOKUP(I33,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I33,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5448,30 +5499,30 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E34">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <f>_xlfn.XLOOKUP(I34,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I34,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, -2, 0</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5480,30 +5531,30 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E35">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="12">
-        <v>-1</v>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
-        <f>_xlfn.XLOOKUP(I35,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I35,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, 0, -1</v>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5512,30 +5563,30 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="12">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f>_xlfn.XLOOKUP(I36,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I36,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, -1, 0</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5544,30 +5595,30 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="12">
-        <v>-1</v>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <f>_xlfn.XLOOKUP(I37,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I37,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, 0, -1</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5576,14 +5627,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -5594,12 +5645,12 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>_xlfn.XLOOKUP(I38,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I38,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
-        <v>3, 0, 0, 0</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5608,30 +5659,30 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
       <c r="E39">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="12">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <f>_xlfn.XLOOKUP(I39,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I39,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
-        <v>3, -1, -1, 0</v>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5640,30 +5691,30 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <f>_xlfn.XLOOKUP(I40,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I40,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="0"/>
-        <v>3, 0, 0, 0</v>
+        <v>0, -2, -2, 0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5672,30 +5723,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41">
+        <v>-2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
         <v>-1</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
-        <f>_xlfn.XLOOKUP(I41,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I41,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="0"/>
-        <v>3, -1, 0, 0</v>
+        <v>0, -2, 0, -1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5704,16 +5755,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="12">
         <v>-1</v>
@@ -5722,12 +5773,12 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f>_xlfn.XLOOKUP(I42,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I42,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, -1, 0</v>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5736,16 +5787,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5754,12 +5805,12 @@
         <v>-1</v>
       </c>
       <c r="H43">
-        <f>_xlfn.XLOOKUP(I43,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I43,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="0"/>
-        <v>0, -2, 0, -1</v>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5768,30 +5819,30 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="12">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="12">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <f>_xlfn.XLOOKUP(I44,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I44,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, -1, 0</v>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5800,30 +5851,30 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="12">
+        <v>3</v>
+      </c>
+      <c r="E45">
         <v>-1</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
+      <c r="F45" s="12">
         <v>-1</v>
       </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
       <c r="H45">
-        <f>_xlfn.XLOOKUP(I45,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I45,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="0"/>
-        <v>2, -1, 0, -1</v>
+        <v>3, -1, -1, 0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5832,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5850,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>_xlfn.XLOOKUP(I46,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I46,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P46" t="str">
@@ -5864,30 +5915,30 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47">
         <v>-1</v>
       </c>
-      <c r="F47" s="12">
-        <v>-1</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <f>_xlfn.XLOOKUP(I47,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I47,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="0"/>
-        <v>3, -1, -1, 0</v>
+        <v>3, -1, 0, 0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5896,30 +5947,30 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="F48" s="12">
+        <v>-1</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <f>_xlfn.XLOOKUP(I48,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I48,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="0"/>
-        <v>3, 0, 0, 0</v>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5928,62 +5979,62 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>-2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
         <v>-1</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
-        <f>_xlfn.XLOOKUP(I49,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I49,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P49" t="str">
         <f t="shared" si="0"/>
-        <v>3, -1, 0, 0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0, -2, 0, -1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E50" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="12">
+        <v>-1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <f>_xlfn.XLOOKUP(I50,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I50,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P50" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>2, -1, -1, 0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -5992,30 +6043,30 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E51" s="12">
+        <v>-1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="G51" s="12">
+        <v>-1</v>
       </c>
       <c r="H51">
-        <f>_xlfn.XLOOKUP(I51,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I51,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>2, -1, 0, -1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6024,30 +6075,30 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <f>_xlfn.XLOOKUP(I52,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I52,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P52" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6056,30 +6107,30 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E53" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="12">
+        <v>-1</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <f>_xlfn.XLOOKUP(I53,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I53,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P53" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
+        <v>3, -1, -1, 0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6088,30 +6139,30 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <f>_xlfn.XLOOKUP(I54,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I54,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 1</v>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6120,45 +6171,45 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E55" s="12">
+        <v>-1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <f>_xlfn.XLOOKUP(I55,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I55,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P55" t="str">
         <f t="shared" si="0"/>
-        <v>0, 2, 1, 0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3, -1, 0, 0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6170,12 +6221,12 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f>_xlfn.XLOOKUP(I56,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I56,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P56" t="str">
         <f t="shared" si="0"/>
-        <v>-4, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6184,13 +6235,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6202,12 +6253,12 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f>_xlfn.XLOOKUP(I57,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I57,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P57" t="str">
         <f t="shared" si="0"/>
-        <v>-3, 0, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6216,30 +6267,30 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <f>_xlfn.XLOOKUP(I58,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I58,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P58" t="str">
         <f t="shared" si="0"/>
-        <v>-2, 0, 0, 0</v>
+        <v>0, 2, 1, 1</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6248,30 +6299,30 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <f>_xlfn.XLOOKUP(I59,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I59,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P59" t="str">
         <f t="shared" si="0"/>
-        <v>-1, 0, 0, 0</v>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6280,7 +6331,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -6289,21 +6340,21 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <f>_xlfn.XLOOKUP(I60,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I60,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P60" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>0, 2, 1, 1</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6312,7 +6363,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -6321,21 +6372,21 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <f>_xlfn.XLOOKUP(I61,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I61,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P61" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0, 0, 0</v>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6344,13 +6395,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6362,12 +6413,12 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f>_xlfn.XLOOKUP(I62,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I62,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P62" t="str">
         <f t="shared" si="0"/>
-        <v>1, 0, 0, 0</v>
+        <v>-4, 0, 0, 0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6376,13 +6427,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C63">
         <v>12</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6394,12 +6445,12 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f>_xlfn.XLOOKUP(I63,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I63,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P63" t="str">
         <f t="shared" si="0"/>
-        <v>2, 0, 0, 0</v>
+        <v>-3, 0, 0, 0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6408,13 +6459,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>12</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6426,12 +6477,12 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f>_xlfn.XLOOKUP(I64,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I64,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" ref="P64:P65" si="3">_xlfn.CONCAT(D64,", ",E64,", ",F64,", ",G64)</f>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6440,13 +6491,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="C65">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6458,12 +6509,12 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f>_xlfn.XLOOKUP(I65,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I65,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="3"/>
-        <v>4, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-1, 0, 0, 0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6472,16 +6523,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6490,12 +6541,12 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f>_xlfn.XLOOKUP(I66,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I66,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P66" t="str">
         <f t="shared" si="0"/>
-        <v>-4, 1, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6504,48 +6555,48 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C67">
         <v>12</v>
       </c>
       <c r="D67">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <f>_xlfn.XLOOKUP(I67,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I67,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P67" t="str">
         <f t="shared" si="0"/>
-        <v>-2, 1, 1, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="4">A67+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C68">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6554,21 +6605,21 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f>_xlfn.XLOOKUP(I68,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I68,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="0"/>
-        <v>-1, 1, 0, 0</v>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -6577,30 +6628,30 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <f>_xlfn.XLOOKUP(I69,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I69,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" ref="P69:P81" si="5">_xlfn.CONCAT(D69,", ",E69,", ",F69,", ",G69)</f>
-        <v>0, 1, 1, 1</v>
+        <f t="shared" si="0"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -6609,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6618,21 +6669,21 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>_xlfn.XLOOKUP(I70,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I70,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="5"/>
-        <v>1, 1, 0, 0</v>
+        <f t="shared" ref="P70:P71" si="7">_xlfn.CONCAT(D70,", ",E70,", ",F70,", ",G70)</f>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -6641,39 +6692,39 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <f>_xlfn.XLOOKUP(I71,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I71,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 1, 1, 0</v>
+        <f t="shared" si="7"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="C72">
         <v>12</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6682,62 +6733,62 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>_xlfn.XLOOKUP(I72,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I72,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="5"/>
-        <v>4, 1, 0, 0</v>
+        <f t="shared" ref="P72:P73" si="8">_xlfn.CONCAT(D72,", ",E72,", ",F72,", ",G72)</f>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <f>_xlfn.XLOOKUP(I73,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I73,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 1, 1, 1</v>
+        <f t="shared" si="8"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6746,62 +6797,62 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f>_xlfn.XLOOKUP(I74,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I74,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-4, 1, 0, 0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <f>_xlfn.XLOOKUP(I75,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I75,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-3, 1, 1, 0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A76:A143" si="9">A75+1</f>
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>-2</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6810,62 +6861,62 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f>_xlfn.XLOOKUP(I76,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I76,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" si="0"/>
+        <v>-2, 1, 0, 0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <f>_xlfn.XLOOKUP(I77,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I77,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="5"/>
-        <v>-2, 0, 0, 0</v>
+        <f t="shared" ref="P77:P93" si="10">_xlfn.CONCAT(D77,", ",E77,", ",F77,", ",G77)</f>
+        <v>1, 1, 1, 1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6874,62 +6925,62 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f>_xlfn.XLOOKUP(I78,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I78,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <f>_xlfn.XLOOKUP(I79,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I79,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>0, 1, 1, 0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6938,187 +6989,187 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f>_xlfn.XLOOKUP(I80,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I80,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <f>_xlfn.XLOOKUP(I81,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I81,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>0, 1, 1, 1</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A82:A85" si="11">A81+1</f>
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="C82">
         <v>12</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <f>_xlfn.XLOOKUP(I82,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I82,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" ref="P82" si="6">_xlfn.CONCAT(D82,", ",E82,", ",F82,", ",G82)</f>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" ref="P82:P85" si="12">_xlfn.CONCAT(D82,", ",E82,", ",F82,", ",G82)</f>
+        <v>1, 1, 0, 0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="C83">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <f>_xlfn.XLOOKUP(I83,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I83,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" ref="P83:P84" si="7">_xlfn.CONCAT(D83,", ",E83,", ",F83,", ",G83)</f>
-        <v>0, 2, 0, 1</v>
+        <f t="shared" si="12"/>
+        <v>2, 1, 1, 0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C84">
         <v>12</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <f>_xlfn.XLOOKUP(I84,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I84,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="7"/>
-        <v>2, 1, 1, 0</v>
+        <f t="shared" si="12"/>
+        <v>3, 1, 0, 0</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <f>_xlfn.XLOOKUP(I85,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I85,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" ref="P85:P88" si="8">_xlfn.CONCAT(D85,", ",E85,", ",F85,", ",G85)</f>
-        <v>2, 1, 0, 1</v>
+        <f t="shared" si="12"/>
+        <v>4, 1, 1, 1</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f>A81+1</f>
+        <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7130,59 +7181,59 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f>_xlfn.XLOOKUP(I86,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I86,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="8"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f t="shared" si="9"/>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <f>_xlfn.XLOOKUP(I87,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I87,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="8"/>
-        <v>3, 1, 1, 0</v>
+        <f t="shared" si="10"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="4"/>
-        <v>86</v>
+        <f t="shared" si="9"/>
+        <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7194,30 +7245,30 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f>_xlfn.XLOOKUP(I88,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I88,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="8"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="4"/>
-        <v>87</v>
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -7226,251 +7277,251 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f>_xlfn.XLOOKUP(I89,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I89,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" ref="P89:P96" si="9">_xlfn.CONCAT(D89,", ",E89,", ",F89,", ",G89)</f>
-        <v>3, 1, 0, 0</v>
+        <f t="shared" si="10"/>
+        <v>-2, 0, 0, 0</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="4"/>
-        <v>88</v>
+        <f t="shared" si="9"/>
+        <v>84</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <f>_xlfn.XLOOKUP(I90,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I90,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="9"/>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" si="10"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="4"/>
-        <v>89</v>
+        <f t="shared" si="9"/>
+        <v>85</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <f>_xlfn.XLOOKUP(I91,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I91,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="9"/>
-        <v>0, 2, 0, 1</v>
+        <f t="shared" si="10"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>86</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <f>_xlfn.XLOOKUP(I92,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I92,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="9"/>
-        <v>2, 1, 1, 0</v>
+        <f t="shared" si="10"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="4"/>
-        <v>91</v>
+        <f t="shared" si="9"/>
+        <v>87</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <f>_xlfn.XLOOKUP(I93,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I93,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="9"/>
-        <v>2, 1, 0, 1</v>
+        <f t="shared" si="10"/>
+        <v>2, 0, 0, 0</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="9"/>
+        <v>88</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C94">
         <v>12</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <f>_xlfn.XLOOKUP(I94,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I94,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="9"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" ref="P94" si="13">_xlfn.CONCAT(D94,", ",E94,", ",F94,", ",G94)</f>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="4"/>
-        <v>93</v>
+        <f t="shared" si="9"/>
+        <v>89</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>1</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
       <c r="H95">
-        <f>_xlfn.XLOOKUP(I95,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I95,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="9"/>
-        <v>3, 1, 1, 0</v>
+        <f t="shared" ref="P95:P96" si="14">_xlfn.CONCAT(D95,", ",E95,", ",F95,", ",G95)</f>
+        <v>0, 2, 0, 1</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f t="shared" si="9"/>
+        <v>90</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <f>_xlfn.XLOOKUP(I96,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I96,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="9"/>
-        <v>3, 0, 0, 0</v>
+        <f t="shared" si="14"/>
+        <v>2, 1, 1, 0</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="9"/>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -7479,30 +7530,30 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <f>_xlfn.XLOOKUP(I97,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I97,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" ref="P97" si="10">_xlfn.CONCAT(D97,", ",E97,", ",F97,", ",G97)</f>
-        <v>3, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P97:P100" si="15">_xlfn.CONCAT(D97,", ",E97,", ",F97,", ",G97)</f>
+        <v>2, 1, 0, 1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f t="shared" si="9"/>
+        <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7514,62 +7565,62 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f>_xlfn.XLOOKUP(I98,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I98,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P98" t="str">
-        <f>_xlfn.CONCAT(D98,", ",E98,", ",F98,", ",G98)</f>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="15"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="4"/>
-        <v>97</v>
+        <f t="shared" si="9"/>
+        <v>93</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <f>_xlfn.XLOOKUP(I99,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I99,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" ref="P99:P110" si="11">_xlfn.CONCAT(D99,", ",E99,", ",F99,", ",G99)</f>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" si="15"/>
+        <v>3, 1, 1, 0</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" si="9"/>
+        <v>94</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
       <c r="E100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7578,30 +7629,30 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f>_xlfn.XLOOKUP(I100,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I100,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="11"/>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" si="15"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f t="shared" si="9"/>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7610,24 +7661,24 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f>_xlfn.XLOOKUP(I101,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I101,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="11"/>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" ref="P101:P108" si="16">_xlfn.CONCAT(D101,", ",E101,", ",F101,", ",G101)</f>
+        <v>3, 1, 0, 0</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -7636,30 +7687,30 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <f>_xlfn.XLOOKUP(I102,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I102,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P102" t="str">
-        <f t="shared" si="11"/>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="4"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>97</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -7671,59 +7722,59 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <f>_xlfn.XLOOKUP(I103,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I103,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="11"/>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>0, 2, 0, 1</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f t="shared" si="9"/>
+        <v>98</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <f>_xlfn.XLOOKUP(I104,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I104,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="11"/>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>2, 1, 1, 0</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="4"/>
-        <v>103</v>
+        <f t="shared" si="9"/>
+        <v>99</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -7735,33 +7786,33 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <f>_xlfn.XLOOKUP(I105,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I105,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="11"/>
-        <v>2, 1, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>2, 1, 0, 1</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7770,24 +7821,24 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>_xlfn.XLOOKUP(I106,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I106,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="11"/>
-        <v>2, 1, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="9"/>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -7796,36 +7847,36 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <f>_xlfn.XLOOKUP(I107,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I107,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="11"/>
-        <v>3, 1, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>3, 1, 1, 0</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="9"/>
+        <v>102</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>3</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -7834,30 +7885,30 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f>_xlfn.XLOOKUP(I108,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I108,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="11"/>
-        <v>3, 1, 0, 0</v>
+        <f t="shared" si="16"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="9"/>
+        <v>103</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D109">
         <v>3</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -7866,27 +7917,27 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f>_xlfn.XLOOKUP(I109,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I109,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="11"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P109" si="17">_xlfn.CONCAT(D109,", ",E109,", ",F109,", ",G109)</f>
+        <v>3, 1, 0, 0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="9"/>
+        <v>104</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7898,21 +7949,21 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f>_xlfn.XLOOKUP(I110,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I110,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="11"/>
-        <v>3, 0, 0, 0</v>
+        <f>_xlfn.CONCAT(D110,", ",E110,", ",F110,", ",G110)</f>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="9"/>
+        <v>105</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -7924,101 +7975,101 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <f>_xlfn.XLOOKUP(I111,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I111,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" ref="P111:P130" si="12">_xlfn.CONCAT(D111,", ",E111,", ",F111,", ",G111)</f>
-        <v>0, 2, 1, 0</v>
+        <f t="shared" ref="P111:P122" si="18">_xlfn.CONCAT(D111,", ",E111,", ",F111,", ",G111)</f>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>106</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <f>_xlfn.XLOOKUP(I112,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I112,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="12"/>
-        <v>1, 3, 0, 1</v>
+        <f t="shared" si="18"/>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="4"/>
-        <v>111</v>
+        <f t="shared" si="9"/>
+        <v>107</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <f>_xlfn.XLOOKUP(I113,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I113,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="12"/>
-        <v>1, 2, 1, 0</v>
+        <f t="shared" si="18"/>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="4"/>
-        <v>112</v>
+        <f t="shared" si="9"/>
+        <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>2</v>
       </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
       <c r="F114">
         <v>0</v>
       </c>
@@ -8026,59 +8077,59 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f>_xlfn.XLOOKUP(I114,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I114,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="12"/>
-        <v>2, 3, 0, 0</v>
+        <f t="shared" si="18"/>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="4"/>
-        <v>113</v>
+        <f t="shared" si="9"/>
+        <v>109</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <f>_xlfn.XLOOKUP(I115,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I115,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="12"/>
-        <v>2, 2, 1, 1</v>
+        <f t="shared" si="18"/>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="4"/>
-        <v>114</v>
+        <f t="shared" si="9"/>
+        <v>110</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -8090,158 +8141,158 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f>_xlfn.XLOOKUP(I116,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I116,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="12"/>
-        <v>2, 2, 0, 0</v>
+        <f t="shared" si="18"/>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f t="shared" si="9"/>
+        <v>111</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
         <v>1</v>
       </c>
-      <c r="E117">
-        <v>3</v>
-      </c>
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117" s="12">
-        <v>-1</v>
+      <c r="G117">
+        <v>0</v>
       </c>
       <c r="H117">
-        <f>_xlfn.XLOOKUP(I117,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I117,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P117" t="str">
-        <f t="shared" ref="P117" si="13">_xlfn.CONCAT(D117,", ",E117,", ",F117,", ",G117)</f>
-        <v>1, 3, 0, -1</v>
+        <f t="shared" si="18"/>
+        <v>2, 1, 0, 0</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="4"/>
-        <v>116</v>
+        <f t="shared" si="9"/>
+        <v>112</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
         <v>1</v>
       </c>
-      <c r="E118">
-        <v>3</v>
-      </c>
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118" s="12">
-        <v>-1</v>
+      <c r="G118">
+        <v>0</v>
       </c>
       <c r="H118">
-        <f>_xlfn.XLOOKUP(I118,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I118,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" ref="P118" si="14">_xlfn.CONCAT(D118,", ",E118,", ",F118,", ",G118)</f>
-        <v>1, 3, 0, -1</v>
+        <f t="shared" si="18"/>
+        <v>2, 1, 0, 0</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f t="shared" si="9"/>
+        <v>113</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
         <v>1</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
-      </c>
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119" s="12">
-        <v>-1</v>
+      <c r="G119">
+        <v>0</v>
       </c>
       <c r="H119">
-        <f>_xlfn.XLOOKUP(I119,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I119,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 3, 0, -1</v>
+        <f t="shared" si="18"/>
+        <v>3, 1, 0, 0</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f t="shared" si="9"/>
+        <v>114</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>2</v>
-      </c>
-      <c r="F120" s="12">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <f>_xlfn.XLOOKUP(I120,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I120,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, -1, 0</v>
+        <f t="shared" si="18"/>
+        <v>3, 1, 0, 0</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="9"/>
+        <v>115</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
         <v>3</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
       <c r="E121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -8250,382 +8301,382 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f>_xlfn.XLOOKUP(I121,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I121,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P121" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 3, 0, 0</v>
+        <f t="shared" si="18"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>116</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>2</v>
-      </c>
-      <c r="F122" s="12">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <f>_xlfn.XLOOKUP(I122,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I122,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" si="12"/>
-        <v>-1, 2, -1, -1</v>
+        <f t="shared" si="18"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f t="shared" si="9"/>
+        <v>117</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" s="12">
+        <v>1</v>
+      </c>
+      <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <f>_xlfn.XLOOKUP(I123,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I123,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P123" t="str">
-        <f t="shared" si="12"/>
-        <v>-1, 2, 0, 0</v>
+        <f t="shared" ref="P123:P142" si="19">_xlfn.CONCAT(D123,", ",E123,", ",F123,", ",G123)</f>
+        <v>0, 2, 1, 0</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="9"/>
+        <v>118</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>2</v>
-      </c>
-      <c r="F124" s="12">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <f>_xlfn.XLOOKUP(I124,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I124,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P124" t="str">
-        <f t="shared" si="12"/>
-        <v>-2, 2, -1, 0</v>
+        <f t="shared" si="19"/>
+        <v>1, 3, 0, 1</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>119</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
         <v>1</v>
       </c>
-      <c r="D125">
-        <v>-2</v>
-      </c>
       <c r="E125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" s="12">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
       </c>
       <c r="H125">
-        <f>_xlfn.XLOOKUP(I125,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I125,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" si="12"/>
-        <v>-2, 3, 0, -1</v>
+        <f t="shared" si="19"/>
+        <v>1, 2, 1, 0</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f t="shared" si="9"/>
+        <v>120</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
         <v>2</v>
       </c>
-      <c r="D126">
-        <v>-2</v>
-      </c>
       <c r="E126">
-        <v>2</v>
-      </c>
-      <c r="F126" s="12">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <f>_xlfn.XLOOKUP(I126,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I126,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P126" t="str">
-        <f t="shared" si="12"/>
-        <v>-2, 2, -1, 0</v>
+        <f t="shared" si="19"/>
+        <v>2, 3, 0, 0</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <f t="shared" si="9"/>
+        <v>121</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <f>_xlfn.XLOOKUP(I127,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I127,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" si="12"/>
-        <v>-1, 3, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>2, 2, 1, 1</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="4"/>
-        <v>126</v>
+        <f t="shared" si="9"/>
+        <v>122</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
         <v>2</v>
-      </c>
-      <c r="D128">
-        <v>-1</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
-      <c r="F128" s="12">
-        <v>-1</v>
+      <c r="F128">
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <f>_xlfn.XLOOKUP(I128,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I128,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" si="12"/>
-        <v>-1, 2, -1, -1</v>
+        <f t="shared" si="19"/>
+        <v>2, 2, 0, 0</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="4"/>
-        <v>127</v>
+        <f t="shared" si="9"/>
+        <v>123</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
         <v>1</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
       <c r="E129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H129">
-        <f>_xlfn.XLOOKUP(I129,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I129,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" ref="P129" si="15">_xlfn.CONCAT(D129,", ",E129,", ",F129,", ",G129)</f>
-        <v>0, 2, 0, 0</v>
+        <f t="shared" ref="P129" si="20">_xlfn.CONCAT(D129,", ",E129,", ",F129,", ",G129)</f>
+        <v>1, 3, 0, -1</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="4"/>
-        <v>128</v>
+        <f t="shared" si="9"/>
+        <v>124</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H130">
+        <f>_xlfn.XLOOKUP(I130,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" ref="P130" si="21">_xlfn.CONCAT(D130,", ",E130,", ",F130,", ",G130)</f>
+        <v>1, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H131">
+        <f>_xlfn.XLOOKUP(I131,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P131" t="str">
+        <f t="shared" si="19"/>
+        <v>0, 3, 0, -1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132">
         <v>2</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130" s="12">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <f>_xlfn.XLOOKUP(I130,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P130" t="str">
-        <f t="shared" si="12"/>
-        <v>0, 2, 0, 0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <f t="shared" si="4"/>
-        <v>129</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <f>_xlfn.XLOOKUP(I131,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P131" t="str">
-        <f>_xlfn.CONCAT(D131,", ",E131,", ",F131,", ",G131)</f>
-        <v>0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <f t="shared" ref="A132:A195" si="16">A131+1</f>
-        <v>130</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>-2</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F132" s="12">
+        <v>-1</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <f>_xlfn.XLOOKUP(I132,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I132,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P132" t="str">
-        <f t="shared" ref="P132:P219" si="17">_xlfn.CONCAT(D132,", ",E132,", ",F132,", ",G132)</f>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>0, 2, -1, 0</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" si="16"/>
-        <v>131</v>
+        <f t="shared" si="9"/>
+        <v>127</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -8634,190 +8685,190 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <f>_xlfn.XLOOKUP(I133,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I133,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P133" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>0, 3, 0, 0</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="16"/>
-        <v>132</v>
+        <f t="shared" si="9"/>
+        <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E134">
-        <v>-2</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F134" s="12">
+        <v>-1</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H134">
-        <f>_xlfn.XLOOKUP(I134,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I134,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P134" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-1, 2, -1, -1</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="16"/>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>129</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E135">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="12">
         <v>0</v>
       </c>
       <c r="H135">
-        <f>_xlfn.XLOOKUP(I135,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I135,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P135" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-1, 2, 0, 0</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="16"/>
-        <v>134</v>
+        <f t="shared" si="9"/>
+        <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E136">
-        <v>-2</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F136" s="12">
+        <v>-1</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <f>_xlfn.XLOOKUP(I136,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I136,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P136" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-2, 2, -1, 0</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="16"/>
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>131</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E137">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
-      <c r="G137">
-        <v>0</v>
+      <c r="G137" s="12">
+        <v>-1</v>
       </c>
       <c r="H137">
-        <f>_xlfn.XLOOKUP(I137,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I137,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-2, 3, 0, -1</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="16"/>
-        <v>136</v>
+        <f t="shared" si="9"/>
+        <v>132</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
+        <v>-2</v>
+      </c>
+      <c r="E138">
         <v>2</v>
       </c>
-      <c r="E138">
+      <c r="F138" s="12">
         <v>-1</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <f>_xlfn.XLOOKUP(I138,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I138,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P138" t="str">
-        <f t="shared" si="17"/>
-        <v>2, -1, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-2, 2, -1, 0</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="16"/>
-        <v>137</v>
+        <f t="shared" si="9"/>
+        <v>133</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -8826,123 +8877,123 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <f>_xlfn.XLOOKUP(I139,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I139,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P139" t="str">
-        <f t="shared" si="17"/>
-        <v>2, -1, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-1, 3, 0, 0</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="16"/>
-        <v>138</v>
+        <f t="shared" si="9"/>
+        <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" s="12">
         <v>-1</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
       <c r="G140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H140">
-        <f>_xlfn.XLOOKUP(I140,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I140,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P140" t="str">
-        <f t="shared" si="17"/>
-        <v>3, -1, 0, 0</v>
+        <f t="shared" si="19"/>
+        <v>-1, 2, -1, -1</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="16"/>
-        <v>139</v>
+        <f t="shared" si="9"/>
+        <v>135</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="12">
         <v>0</v>
       </c>
       <c r="H141">
-        <f>_xlfn.XLOOKUP(I141,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I141,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" si="17"/>
-        <v>3, -1, 0, 0</v>
+        <f t="shared" ref="P141" si="22">_xlfn.CONCAT(D141,", ",E141,", ",F141,", ",G141)</f>
+        <v>0, 2, 0, 0</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="16"/>
-        <v>140</v>
+        <f t="shared" si="9"/>
+        <v>136</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
         <v>2</v>
       </c>
-      <c r="D142">
-        <v>3</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
       <c r="F142">
         <v>0</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="12">
         <v>0</v>
       </c>
       <c r="H142">
-        <f>_xlfn.XLOOKUP(I142,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I142,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P142" t="str">
-        <f t="shared" si="17"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="19"/>
+        <v>0, 2, 0, 0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f t="shared" si="9"/>
+        <v>137</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -8954,24 +9005,24 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f>_xlfn.XLOOKUP(I143,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I143,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="17"/>
-        <v>3, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT(D143,", ",E143,", ",F143,", ",G143)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="16"/>
-        <v>142</v>
+        <f t="shared" ref="A144:A207" si="23">A143+1</f>
+        <v>138</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -8979,101 +9030,101 @@
       <c r="E144">
         <v>-2</v>
       </c>
-      <c r="F144" s="12">
-        <v>-1</v>
+      <c r="F144">
+        <v>0</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <f>_xlfn.XLOOKUP(I144,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I144,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, -1, 0</v>
+        <f t="shared" ref="P144:P236" si="24">_xlfn.CONCAT(D144,", ",E144,", ",F144,", ",G144)</f>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="16"/>
-        <v>143</v>
+        <f t="shared" si="23"/>
+        <v>139</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
-      <c r="G145" s="12">
-        <v>-1</v>
+      <c r="G145">
+        <v>0</v>
       </c>
       <c r="H145">
-        <f>_xlfn.XLOOKUP(I145,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I145,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P145" t="str">
-        <f t="shared" si="17"/>
-        <v>1, -3, 0, -1</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="16"/>
-        <v>144</v>
+        <f t="shared" si="23"/>
+        <v>140</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>-2</v>
       </c>
-      <c r="F146" s="12">
-        <v>-1</v>
+      <c r="F146">
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <f>_xlfn.XLOOKUP(I146,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I146,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" si="17"/>
-        <v>1, -2, -1, 0</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" si="16"/>
-        <v>145</v>
+        <f t="shared" si="23"/>
+        <v>141</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -9082,59 +9133,59 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f>_xlfn.XLOOKUP(I147,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I147,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="17"/>
-        <v>2, -3, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="16"/>
-        <v>146</v>
+        <f t="shared" si="23"/>
+        <v>142</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>-2</v>
       </c>
-      <c r="F148" s="12">
-        <v>-1</v>
+      <c r="F148">
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <f>_xlfn.XLOOKUP(I148,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I148,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="17"/>
-        <v>2, -2, -1, -1</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="16"/>
-        <v>147</v>
+        <f t="shared" si="23"/>
+        <v>143</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>-2</v>
@@ -9142,130 +9193,130 @@
       <c r="F149">
         <v>0</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <f>_xlfn.XLOOKUP(I149,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I149,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="17"/>
-        <v>2, -2, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, 0, 0</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="16"/>
-        <v>148</v>
+        <f t="shared" si="23"/>
+        <v>144</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>-2</v>
-      </c>
-      <c r="F150" s="12">
         <v>-1</v>
       </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <f>_xlfn.XLOOKUP(I150,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I150,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="17"/>
-        <v>1, -2, -1, 0</v>
+        <f t="shared" si="24"/>
+        <v>2, -1, 0, 0</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="16"/>
-        <v>149</v>
+        <f t="shared" si="23"/>
+        <v>145</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
-      <c r="G151" s="12">
-        <v>-1</v>
+      <c r="G151">
+        <v>0</v>
       </c>
       <c r="H151">
-        <f>_xlfn.XLOOKUP(I151,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I151,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="17"/>
-        <v>1, -3, 0, -1</v>
+        <f t="shared" si="24"/>
+        <v>2, -1, 0, 0</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="16"/>
-        <v>150</v>
+        <f t="shared" si="23"/>
+        <v>146</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>-2</v>
-      </c>
-      <c r="F152" s="12">
         <v>-1</v>
       </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <f>_xlfn.XLOOKUP(I152,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I152,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, -1, 0</v>
+        <f t="shared" si="24"/>
+        <v>3, -1, 0, 0</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="16"/>
-        <v>151</v>
+        <f t="shared" si="23"/>
+        <v>147</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -9274,91 +9325,91 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f>_xlfn.XLOOKUP(I153,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I153,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -3, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>3, -1, 0, 0</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="16"/>
-        <v>152</v>
+        <f t="shared" si="23"/>
+        <v>148</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>-2</v>
-      </c>
-      <c r="F154" s="12">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <f>_xlfn.XLOOKUP(I154,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I154,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="17"/>
-        <v>0, -2, -1, -1</v>
+        <f t="shared" si="24"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="16"/>
-        <v>153</v>
+        <f t="shared" si="23"/>
+        <v>149</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <f>_xlfn.XLOOKUP(I155,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I155,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="17"/>
-        <v>-1, -2, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>3, 0, 0, 0</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="16"/>
-        <v>154</v>
+        <f t="shared" si="23"/>
+        <v>150</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>-2</v>
@@ -9370,27 +9421,27 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f>_xlfn.XLOOKUP(I156,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I156,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="17"/>
-        <v>-1, -2, -1, 0</v>
+        <f t="shared" si="24"/>
+        <v>0, -2, -1, 0</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="16"/>
-        <v>155</v>
+        <f t="shared" si="23"/>
+        <v>151</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>-3</v>
@@ -9402,27 +9453,27 @@
         <v>-1</v>
       </c>
       <c r="H157">
-        <f>_xlfn.XLOOKUP(I157,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I157,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="17"/>
-        <v>-2, -3, 0, -1</v>
+        <f t="shared" si="24"/>
+        <v>1, -3, 0, -1</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="16"/>
-        <v>156</v>
+        <f t="shared" si="23"/>
+        <v>152</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>-2</v>
@@ -9434,27 +9485,27 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f>_xlfn.XLOOKUP(I158,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I158,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="17"/>
-        <v>-2, -2, -1, 0</v>
+        <f t="shared" si="24"/>
+        <v>1, -2, -1, 0</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="16"/>
-        <v>157</v>
+        <f t="shared" si="23"/>
+        <v>153</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D159">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>-3</v>
@@ -9466,27 +9517,27 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f>_xlfn.XLOOKUP(I159,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I159,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="17"/>
-        <v>-2, -3, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>2, -3, 0, 0</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="16"/>
-        <v>158</v>
+        <f t="shared" si="23"/>
+        <v>154</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>-2</v>
@@ -9498,27 +9549,27 @@
         <v>-1</v>
       </c>
       <c r="H160">
-        <f>_xlfn.XLOOKUP(I160,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I160,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="17"/>
-        <v>-1, -2, -1, -1</v>
+        <f t="shared" si="24"/>
+        <v>2, -2, -1, -1</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f t="shared" si="23"/>
+        <v>155</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>-2</v>
@@ -9530,27 +9581,27 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f>_xlfn.XLOOKUP(I161,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I161,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="17"/>
-        <v>-1, -2, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>2, -2, 0, 0</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="16"/>
-        <v>160</v>
+        <f t="shared" si="23"/>
+        <v>156</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>-2</v>
@@ -9559,481 +9610,481 @@
         <v>-1</v>
       </c>
       <c r="G162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <f>_xlfn.XLOOKUP(I162,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I162,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" ref="P162:P163" si="18">_xlfn.CONCAT(D162,", ",E162,", ",F162,", ",G162)</f>
-        <v>0, -2, -1, -1</v>
+        <f t="shared" si="24"/>
+        <v>1, -2, -1, 0</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="16"/>
-        <v>161</v>
+        <f t="shared" si="23"/>
+        <v>157</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C163">
         <v>4</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
+        <v>-3</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H163">
+        <f>_xlfn.XLOOKUP(I163,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P163" t="str">
+        <f t="shared" si="24"/>
+        <v>1, -3, 0, -1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="23"/>
+        <v>158</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <v>-2</v>
       </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163" s="12">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <f>_xlfn.XLOOKUP(I163,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P163" t="str">
-        <f t="shared" si="18"/>
+      <c r="F164" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f>_xlfn.XLOOKUP(I164,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P164" t="str">
+        <f t="shared" si="24"/>
+        <v>0, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="23"/>
+        <v>159</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>-3</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f>_xlfn.XLOOKUP(I165,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" si="24"/>
+        <v>0, -3, 0, 0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>-2</v>
+      </c>
+      <c r="F166" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G166">
+        <v>-1</v>
+      </c>
+      <c r="H166">
+        <f>_xlfn.XLOOKUP(I166,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="24"/>
+        <v>0, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="23"/>
+        <v>161</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>-1</v>
+      </c>
+      <c r="E167">
+        <v>-2</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f>_xlfn.XLOOKUP(I167,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="24"/>
+        <v>-1, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="23"/>
+        <v>162</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>-1</v>
+      </c>
+      <c r="E168">
+        <v>-2</v>
+      </c>
+      <c r="F168" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f>_xlfn.XLOOKUP(I168,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P168" t="str">
+        <f t="shared" si="24"/>
+        <v>-1, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="23"/>
+        <v>163</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>-2</v>
+      </c>
+      <c r="E169">
+        <v>-3</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H169">
+        <f>_xlfn.XLOOKUP(I169,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P169" t="str">
+        <f t="shared" si="24"/>
+        <v>-2, -3, 0, -1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="23"/>
+        <v>164</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>-2</v>
+      </c>
+      <c r="E170">
+        <v>-2</v>
+      </c>
+      <c r="F170" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f>_xlfn.XLOOKUP(I170,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P170" t="str">
+        <f t="shared" si="24"/>
+        <v>-2, -2, -1, 0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="23"/>
+        <v>165</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>-2</v>
+      </c>
+      <c r="E171">
+        <v>-3</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f>_xlfn.XLOOKUP(I171,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P171" t="str">
+        <f t="shared" si="24"/>
+        <v>-2, -3, 0, 0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="23"/>
+        <v>166</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>-1</v>
+      </c>
+      <c r="E172">
+        <v>-2</v>
+      </c>
+      <c r="F172" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G172">
+        <v>-1</v>
+      </c>
+      <c r="H172">
+        <f>_xlfn.XLOOKUP(I172,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P172" t="str">
+        <f t="shared" si="24"/>
+        <v>-1, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="23"/>
+        <v>167</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>-1</v>
+      </c>
+      <c r="E173">
+        <v>-2</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" s="12">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f>_xlfn.XLOOKUP(I173,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P173" t="str">
+        <f t="shared" si="24"/>
+        <v>-1, -2, 0, 0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="23"/>
+        <v>168</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>-2</v>
+      </c>
+      <c r="F174" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G174">
+        <v>-1</v>
+      </c>
+      <c r="H174">
+        <f>_xlfn.XLOOKUP(I174,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P174" t="str">
+        <f t="shared" ref="P174:P175" si="25">_xlfn.CONCAT(D174,", ",E174,", ",F174,", ",G174)</f>
+        <v>0, -2, -1, -1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="23"/>
+        <v>169</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>-2</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" s="12">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f>_xlfn.XLOOKUP(I175,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P175" t="str">
+        <f t="shared" si="25"/>
         <v>0, -2, 0, 0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <f t="shared" si="16"/>
-        <v>162</v>
-      </c>
-      <c r="B164" s="1" t="s">
+    <row r="176" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="23"/>
+        <v>170</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C164">
+      <c r="C176">
         <v>1</v>
       </c>
-      <c r="D164">
+      <c r="D176">
         <v>4</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <f>_xlfn.XLOOKUP(I164,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P164" t="str">
-        <f t="shared" si="17"/>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f>_xlfn.XLOOKUP(I176,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P176" t="str">
+        <f t="shared" si="24"/>
         <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <f t="shared" si="16"/>
-        <v>163</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C165">
-        <v>2</v>
-      </c>
-      <c r="D165">
-        <v>4</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <f>_xlfn.XLOOKUP(I165,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P165" t="str">
-        <f t="shared" si="17"/>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <f t="shared" si="16"/>
-        <v>164</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C166">
-        <v>3</v>
-      </c>
-      <c r="D166">
-        <v>4</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <f>_xlfn.XLOOKUP(I166,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P166" t="str">
-        <f t="shared" si="17"/>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <f t="shared" si="16"/>
-        <v>165</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>4</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <f>_xlfn.XLOOKUP(I167,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P167" t="str">
-        <f t="shared" si="17"/>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <f t="shared" si="16"/>
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168">
-        <v>4</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <f>_xlfn.XLOOKUP(I168,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P168" t="str">
-        <f t="shared" si="17"/>
-        <v>4, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <f t="shared" si="16"/>
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C169">
-        <v>3</v>
-      </c>
-      <c r="D169">
-        <v>-1</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <f>_xlfn.XLOOKUP(I169,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P169" t="str">
-        <f t="shared" si="17"/>
-        <v>-1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <f t="shared" si="16"/>
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <f>_xlfn.XLOOKUP(I170,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P170" t="str">
-        <f t="shared" si="17"/>
-        <v>1, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <f t="shared" si="16"/>
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <f>_xlfn.XLOOKUP(I171,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P171" t="str">
-        <f t="shared" ref="P171" si="19">_xlfn.CONCAT(D171,", ",E171,", ",F171,", ",G171)</f>
-        <v>0, 0, 0, 0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <f t="shared" si="16"/>
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <f>_xlfn.XLOOKUP(I172,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P172" t="str">
-        <f t="shared" ref="P172:P173" si="20">_xlfn.CONCAT(D172,", ",E172,", ",F172,", ",G172)</f>
-        <v>0, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <f t="shared" si="16"/>
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <f>_xlfn.XLOOKUP(I173,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P173" t="str">
-        <f t="shared" si="20"/>
-        <v>0, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <f t="shared" si="16"/>
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C174">
-        <v>3</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <f>_xlfn.XLOOKUP(I174,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P174" t="str">
-        <f t="shared" ref="P174:P177" si="21">_xlfn.CONCAT(D174,", ",E174,", ",F174,", ",G174)</f>
-        <v>0, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <f t="shared" si="16"/>
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <f>_xlfn.XLOOKUP(I175,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P175" t="str">
-        <f t="shared" si="21"/>
-        <v>0, 1, 0, 0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <f t="shared" si="16"/>
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <f>_xlfn.XLOOKUP(I176,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P176" t="str">
-        <f t="shared" si="21"/>
-        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="16"/>
-        <v>175</v>
+        <f t="shared" si="23"/>
+        <v>171</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -10042,30 +10093,30 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <f>_xlfn.XLOOKUP(I177,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I177,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="21"/>
-        <v>0, 1, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="16"/>
-        <v>176</v>
+        <f t="shared" si="23"/>
+        <v>172</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="C178">
         <v>3</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -10074,30 +10125,30 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <f>_xlfn.XLOOKUP(I178,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I178,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" ref="P178:P183" si="22">_xlfn.CONCAT(D178,", ",E178,", ",F178,", ",G178)</f>
-        <v>0, 1, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <f t="shared" si="23"/>
+        <v>173</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -10106,30 +10157,30 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f>_xlfn.XLOOKUP(I179,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I179,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="22"/>
-        <v>0, 1, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <f t="shared" si="16"/>
-        <v>178</v>
+        <f t="shared" si="23"/>
+        <v>174</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -10138,30 +10189,30 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f>_xlfn.XLOOKUP(I180,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I180,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="22"/>
-        <v>0, 1, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>4, 0, 0, 0</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f t="shared" si="16"/>
-        <v>179</v>
+        <f t="shared" si="23"/>
+        <v>175</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -10170,27 +10221,27 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f>_xlfn.XLOOKUP(I181,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I181,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="22"/>
-        <v>0, 1, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>-1, 0, 0, 0</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f t="shared" si="16"/>
-        <v>180</v>
+        <f t="shared" si="23"/>
+        <v>176</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -10202,21 +10253,21 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f>_xlfn.XLOOKUP(I182,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I182,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="22"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="24"/>
+        <v>1, 0, 0, 0</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f t="shared" si="16"/>
-        <v>181</v>
+        <f t="shared" si="23"/>
+        <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -10234,30 +10285,30 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f>_xlfn.XLOOKUP(I183,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I183,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="P183" si="26">_xlfn.CONCAT(D183,", ",E183,", ",F183,", ",G183)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f t="shared" si="16"/>
-        <v>182</v>
+        <f t="shared" si="23"/>
+        <v>178</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -10266,30 +10317,30 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f>_xlfn.XLOOKUP(I184,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I184,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" ref="P184:P199" si="23">_xlfn.CONCAT(D184,", ",E184,", ",F184,", ",G184)</f>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" ref="P184:P185" si="27">_xlfn.CONCAT(D184,", ",E184,", ",F184,", ",G184)</f>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <f t="shared" si="16"/>
-        <v>183</v>
+        <f t="shared" si="23"/>
+        <v>179</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -10298,30 +10349,30 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <f>_xlfn.XLOOKUP(I185,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I185,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="23"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="27"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <f t="shared" si="16"/>
-        <v>184</v>
+        <f t="shared" si="23"/>
+        <v>180</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -10330,30 +10381,30 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f>_xlfn.XLOOKUP(I186,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I186,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" ref="P186" si="24">_xlfn.CONCAT(D186,", ",E186,", ",F186,", ",G186)</f>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" ref="P186:P189" si="28">_xlfn.CONCAT(D186,", ",E186,", ",F186,", ",G186)</f>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <f t="shared" si="16"/>
-        <v>185</v>
+        <f t="shared" si="23"/>
+        <v>181</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -10362,30 +10413,30 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f>_xlfn.XLOOKUP(I187,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I187,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="23"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="28"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <f t="shared" si="16"/>
-        <v>186</v>
+        <f t="shared" si="23"/>
+        <v>182</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -10394,30 +10445,30 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f>_xlfn.XLOOKUP(I188,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I188,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="28"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <f t="shared" si="16"/>
-        <v>187</v>
+        <f t="shared" si="23"/>
+        <v>183</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -10426,30 +10477,30 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <f>_xlfn.XLOOKUP(I189,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I189,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="28"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <f t="shared" si="16"/>
-        <v>188</v>
+        <f t="shared" si="23"/>
+        <v>184</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -10458,30 +10509,30 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <f>_xlfn.XLOOKUP(I190,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I190,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" ref="P190:P195" si="29">_xlfn.CONCAT(D190,", ",E190,", ",F190,", ",G190)</f>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <f t="shared" si="16"/>
-        <v>189</v>
+        <f t="shared" si="23"/>
+        <v>185</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -10490,30 +10541,30 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <f>_xlfn.XLOOKUP(I191,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I191,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="29"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <f t="shared" si="16"/>
-        <v>190</v>
+        <f t="shared" si="23"/>
+        <v>186</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -10522,30 +10573,30 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f>_xlfn.XLOOKUP(I192,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I192,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="29"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <f t="shared" si="16"/>
-        <v>191</v>
+        <f t="shared" si="23"/>
+        <v>187</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -10554,30 +10605,30 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <f>_xlfn.XLOOKUP(I193,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I193,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="29"/>
+        <v>0, 1, 0, 0</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <f t="shared" si="16"/>
-        <v>192</v>
+        <f t="shared" si="23"/>
+        <v>188</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -10586,30 +10637,30 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f>_xlfn.XLOOKUP(I194,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I194,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="29"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f t="shared" si="16"/>
-        <v>193</v>
+        <f t="shared" si="23"/>
+        <v>189</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -10618,30 +10669,30 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <f>_xlfn.XLOOKUP(I195,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I195,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="29"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f t="shared" ref="A196:A219" si="25">A195+1</f>
-        <v>194</v>
+        <f t="shared" si="23"/>
+        <v>190</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -10650,30 +10701,30 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <f>_xlfn.XLOOKUP(I196,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I196,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" ref="P196:P211" si="30">_xlfn.CONCAT(D196,", ",E196,", ",F196,", ",G196)</f>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f t="shared" si="25"/>
-        <v>195</v>
+        <f t="shared" si="23"/>
+        <v>191</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -10682,21 +10733,21 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <f>_xlfn.XLOOKUP(I197,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I197,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="23"/>
-        <v>0, -1, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f t="shared" si="25"/>
-        <v>196</v>
+        <f t="shared" si="23"/>
+        <v>192</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -10714,21 +10765,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <f>_xlfn.XLOOKUP(I198,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I198,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="P198" si="31">_xlfn.CONCAT(D198,", ",E198,", ",F198,", ",G198)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f t="shared" si="25"/>
-        <v>197</v>
+        <f t="shared" si="23"/>
+        <v>193</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -10746,30 +10797,30 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <f>_xlfn.XLOOKUP(I199,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I199,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f t="shared" si="25"/>
-        <v>198</v>
+        <f t="shared" si="23"/>
+        <v>194</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -10778,30 +10829,30 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f>_xlfn.XLOOKUP(I200,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I200,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" ref="P200:P201" si="26">_xlfn.CONCAT(D200,", ",E200,", ",F200,", ",G200)</f>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f t="shared" si="25"/>
-        <v>199</v>
+        <f t="shared" si="23"/>
+        <v>195</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -10810,30 +10861,30 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <f>_xlfn.XLOOKUP(I201,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I201,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="26"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f t="shared" si="25"/>
-        <v>200</v>
+        <f t="shared" si="23"/>
+        <v>196</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -10842,30 +10893,30 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f>_xlfn.XLOOKUP(I202,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I202,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" ref="P202:P210" si="27">_xlfn.CONCAT(D202,", ",E202,", ",F202,", ",G202)</f>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f t="shared" si="25"/>
-        <v>201</v>
+        <f t="shared" si="23"/>
+        <v>197</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -10874,30 +10925,30 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <f>_xlfn.XLOOKUP(I203,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I203,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f t="shared" si="25"/>
-        <v>202</v>
+        <f t="shared" si="23"/>
+        <v>198</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -10906,30 +10957,30 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <f>_xlfn.XLOOKUP(I204,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I204,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f t="shared" si="25"/>
-        <v>203</v>
+        <f t="shared" si="23"/>
+        <v>199</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -10938,30 +10989,30 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <f>_xlfn.XLOOKUP(I205,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I205,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
-        <f t="shared" si="25"/>
-        <v>204</v>
+        <f t="shared" si="23"/>
+        <v>200</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -10970,30 +11021,30 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <f>_xlfn.XLOOKUP(I206,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I206,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <f t="shared" si="25"/>
-        <v>205</v>
+        <f t="shared" si="23"/>
+        <v>201</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -11002,30 +11053,30 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <f>_xlfn.XLOOKUP(I207,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I207,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <f t="shared" si="25"/>
-        <v>206</v>
+        <f t="shared" ref="A208:A236" si="32">A207+1</f>
+        <v>202</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -11034,30 +11085,30 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <f>_xlfn.XLOOKUP(I208,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I208,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <f t="shared" si="25"/>
-        <v>207</v>
+        <f t="shared" si="32"/>
+        <v>203</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -11066,21 +11117,21 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <f>_xlfn.XLOOKUP(I209,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I209,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="27"/>
-        <v>0, 0, 0, 0</v>
+        <f t="shared" si="30"/>
+        <v>0, -1, 0, 0</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f t="shared" si="25"/>
-        <v>208</v>
+        <f t="shared" si="32"/>
+        <v>204</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -11098,21 +11149,21 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <f>_xlfn.XLOOKUP(I210,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I210,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f t="shared" si="25"/>
-        <v>209</v>
+        <f t="shared" si="32"/>
+        <v>205</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -11130,21 +11181,21 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <f>_xlfn.XLOOKUP(I211,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I211,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" ref="P211" si="28">_xlfn.CONCAT(D211,", ",E211,", ",F211,", ",G211)</f>
+        <f t="shared" si="30"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="25"/>
-        <v>210</v>
+        <f t="shared" si="32"/>
+        <v>206</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -11162,21 +11213,21 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <f>_xlfn.XLOOKUP(I212,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I212,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" ref="P212:P213" si="29">_xlfn.CONCAT(D212,", ",E212,", ",F212,", ",G212)</f>
+        <f t="shared" ref="P212:P213" si="33">_xlfn.CONCAT(D212,", ",E212,", ",F212,", ",G212)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="25"/>
-        <v>211</v>
+        <f t="shared" si="32"/>
+        <v>207</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -11194,21 +11245,21 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <f>_xlfn.XLOOKUP(I213,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I213,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f t="shared" si="25"/>
-        <v>212</v>
+        <f t="shared" si="32"/>
+        <v>208</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -11226,21 +11277,21 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <f>_xlfn.XLOOKUP(I214,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I214,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" ref="P214:P217" si="30">_xlfn.CONCAT(D214,", ",E214,", ",F214,", ",G214)</f>
+        <f t="shared" ref="P214:P222" si="34">_xlfn.CONCAT(D214,", ",E214,", ",F214,", ",G214)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" si="25"/>
-        <v>213</v>
+        <f t="shared" si="32"/>
+        <v>209</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -11258,21 +11309,21 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <f>_xlfn.XLOOKUP(I215,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I215,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="25"/>
-        <v>214</v>
+        <f t="shared" si="32"/>
+        <v>210</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -11290,21 +11341,21 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <f>_xlfn.XLOOKUP(I216,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I216,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="25"/>
-        <v>215</v>
+        <f t="shared" si="32"/>
+        <v>211</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -11322,127 +11373,665 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <f>_xlfn.XLOOKUP(I217,$B$2:$B$50,$A$2:$A$50,65535)</f>
+        <f>_xlfn.XLOOKUP(I217,$B$2:$B$56,$A$2:$A$56,65535)</f>
         <v>65535</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
+        <v>212</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <f>_xlfn.XLOOKUP(I218,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P218" t="str">
+        <f t="shared" si="34"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="32"/>
+        <v>213</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <f>_xlfn.XLOOKUP(I219,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P219" t="str">
+        <f t="shared" si="34"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="32"/>
+        <v>214</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <f>_xlfn.XLOOKUP(I220,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P220" t="str">
+        <f t="shared" si="34"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="32"/>
+        <v>215</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <f>_xlfn.XLOOKUP(I221,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P221" t="str">
+        <f t="shared" si="34"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="32"/>
         <v>216</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <f>_xlfn.XLOOKUP(I222,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P222" t="str">
+        <f t="shared" si="34"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="32"/>
+        <v>217</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <f>_xlfn.XLOOKUP(I223,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P223" t="str">
+        <f t="shared" ref="P223" si="35">_xlfn.CONCAT(D223,", ",E223,", ",F223,", ",G223)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="32"/>
+        <v>218</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <f>_xlfn.XLOOKUP(I224,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P224" t="str">
+        <f t="shared" ref="P224:P225" si="36">_xlfn.CONCAT(D224,", ",E224,", ",F224,", ",G224)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="32"/>
+        <v>219</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <f>_xlfn.XLOOKUP(I225,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P225" t="str">
+        <f t="shared" si="36"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="32"/>
+        <v>220</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <f>_xlfn.XLOOKUP(I226,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P226" t="str">
+        <f t="shared" ref="P226:P229" si="37">_xlfn.CONCAT(D226,", ",E226,", ",F226,", ",G226)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="32"/>
+        <v>221</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <f>_xlfn.XLOOKUP(I227,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P227" t="str">
+        <f t="shared" si="37"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="32"/>
+        <v>222</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <f>_xlfn.XLOOKUP(I228,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P228" t="str">
+        <f t="shared" si="37"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="32"/>
+        <v>223</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <f>_xlfn.XLOOKUP(I229,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P229" t="str">
+        <f t="shared" si="37"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="32"/>
+        <v>224</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <f>_xlfn.XLOOKUP(I218,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="P218" t="str">
-        <f t="shared" ref="P218" si="31">_xlfn.CONCAT(D218,", ",E218,", ",F218,", ",G218)</f>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <f>_xlfn.XLOOKUP(I230,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P230" t="str">
+        <f t="shared" ref="P230" si="38">_xlfn.CONCAT(D230,", ",E230,", ",F230,", ",G230)</f>
         <v>0, 0, 0, 0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <f t="shared" si="25"/>
-        <v>217</v>
-      </c>
-      <c r="B219" s="1" t="s">
+    <row r="231" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="32"/>
+        <v>225</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <f>_xlfn.XLOOKUP(I231,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P231" t="str">
+        <f t="shared" ref="P231:P232" si="39">_xlfn.CONCAT(D231,", ",E231,", ",F231,", ",G231)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="32"/>
+        <v>226</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <f>_xlfn.XLOOKUP(I232,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P232" t="str">
+        <f t="shared" si="39"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="32"/>
+        <v>227</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C233">
         <v>5</v>
       </c>
-      <c r="C219">
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <f>_xlfn.XLOOKUP(I233,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P233" t="str">
+        <f t="shared" ref="P233:P234" si="40">_xlfn.CONCAT(D233,", ",E233,", ",F233,", ",G233)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="32"/>
+        <v>228</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <f>_xlfn.XLOOKUP(I234,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P234" t="str">
+        <f t="shared" si="40"/>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="32"/>
+        <v>229</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C235">
         <v>7</v>
       </c>
-      <c r="D219">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <f>_xlfn.XLOOKUP(I235,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="P235" t="str">
+        <f t="shared" ref="P235" si="41">_xlfn.CONCAT(D235,", ",E235,", ",F235,", ",G235)</f>
+        <v>0, 0, 0, 0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="32"/>
+        <v>230</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236">
         <v>15</v>
       </c>
-      <c r="E219">
+      <c r="E236">
         <v>-1</v>
       </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <f>_xlfn.XLOOKUP(I219,$B$2:$B$50,$A$2:$A$50,65535)</f>
-        <v>65535</v>
-      </c>
-      <c r="J219">
-        <f>C219-C250</f>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <f>_xlfn.XLOOKUP(I236,$B$2:$B$56,$A$2:$A$56,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="J236">
+        <f>C236-C267</f>
         <v>7</v>
       </c>
-      <c r="K219">
-        <f>D219-D250</f>
+      <c r="K236">
+        <f>D236-D267</f>
         <v>15</v>
       </c>
-      <c r="L219">
-        <f>E219+E250</f>
+      <c r="L236">
+        <f>E236+E267</f>
         <v>-1</v>
       </c>
-      <c r="M219">
-        <f>F219+F250</f>
-        <v>0</v>
-      </c>
-      <c r="N219">
-        <f>G219+G250</f>
-        <v>0</v>
-      </c>
-      <c r="P219" t="str">
-        <f t="shared" si="17"/>
+      <c r="M236">
+        <f>F236+F267</f>
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <f>G236+G267</f>
+        <v>0</v>
+      </c>
+      <c r="P236" t="str">
+        <f t="shared" si="24"/>
         <v>15, -1, 0, 0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C221" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C219),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 5, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 1, 3, 3, 4, 4, 3, 3, 4, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 1, 10, 15, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 11, 12, 12, 12, 12, 12, 12, 11, 13, 13, 14, 14, 13, 13, 14, 14, 12, 12, 12, 12, 12, 12, 12, 11, 11, 11, 12, 12, 12, 12, 12, 11, 0, 0, 3, 2, 1, 0, 3, 2, 1, 0, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 1, 2, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 0, 1, 2, 3, 0, 1, 2, 3, 0, 1, 2, 3, 4, 5, 6, 7, 6, 5, 4, 4, 5, 6, 7, 6, 5, 4, 5, 6, 7, 6, 5, 4, 1, 2, 3, 1, 2, 3, 0, 0, 2, 2, 3, 3, 2, 2, 3, 3, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 3, 3, 2, 2, 3, 3, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 7};</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C222" t="str">
-        <f>_xlfn.CONCAT("uint16_t SubsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H219),"};")</f>
-        <v>uint16_t SubsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C223" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P219),"};")</f>
-        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, -1, 0, 0 , -2, -1, -1, 0 , -1, -1, 0, 0 , 0, -1, -1, -1 , 1, -1, 0, 0 , 2, -1, -1, 0 , 4, -1, 0, 0 , 0, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, 1, 0, 0 , -2, 1, 1, 0 , -1, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 4, 1, 0, 0 , 0, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 2, 1, 0 , 1, 3, 0, 1 , 1, 2, 1, 0 , 2, 3, 0, 0 , 2, 2, 1, 1 , 2, 2, 0, 0 , 1, 3, 0, -1 , 1, 3, 0, -1 , 0, 3, 0, -1 , 0, 2, -1, 0 , 0, 3, 0, 0 , -1, 2, -1, -1 , -1, 2, 0, 0 , -2, 2, -1, 0 , -2, 3, 0, -1 , -2, 2, -1, 0 , -1, 3, 0, 0 , -1, 2, -1, -1 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, -2, -1, 0 , 1, -3, 0, -1 , 1, -2, -1, 0 , 2, -3, 0, 0 , 2, -2, -1, -1 , 2, -2, 0, 0 , 1, -2, -1, 0 , 1, -3, 0, -1 , 0, -2, -1, 0 , 0, -3, 0, 0 , 0, -2, -1, -1 , -1, -2, 0, 0 , -1, -2, -1, 0 , -2, -3, 0, -1 , -2, -2, -1, 0 , -2, -3, 0, 0 , -1, -2, -1, -1 , -1, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 0, 0, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 15, -1, 0, 0};</v>
-      </c>
-    </row>
-    <row r="244" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="Q244" s="12"/>
-    </row>
-    <row r="245" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P245" s="12"/>
-    </row>
-    <row r="246" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="Q246" s="12"/>
-    </row>
-    <row r="248" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P248" s="12"/>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C238" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C236),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 5, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 3, 3, 4, 4, 3, 3, 4, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 1, 10, 15, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 11, 12, 12, 12, 12, 12, 12, 11, 12, 12, 12, 11, 13, 13, 14, 14, 13, 13, 14, 14, 12, 12, 12, 12, 12, 12, 12, 11, 11, 11, 12, 12, 12, 12, 12, 11, 0, 0, 3, 2, 1, 0, 3, 2, 1, 0, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 1, 2, 3, 2, 1, 0, 1, 2, 3, 2, 1, 0, 0, 0, 1, 2, 3, 0, 1, 2, 3, 0, 1, 2, 3, 4, 5, 6, 7, 6, 5, 4, 4, 5, 6, 7, 6, 5, 4, 5, 6, 7, 6, 5, 4, 1, 2, 3, 1, 2, 3, 0, 0, 1, 1, 2, 2, 1, 1, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 2, 2, 1, 1, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 4, 5, 6, 7, 7};</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C240" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P236),"};")</f>
+        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, -1, 0, 0 , -3, -1, -1, 0 , -2, -1, 0, 0 , -1, -1, -1, -1 , 0, -2, -1, 0 , 0, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 1, -1, -1, 0 , 2, -1, 0, 0 , 3, -1, -1, -1 , 4, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, 1, 0, 0 , -3, 1, 1, 0 , -2, 1, 0, 0 , 1, 1, 1, 1 , 0, 1, 0, 0 , 0, 1, 1, 0 , 0, 1, 0, 0 , 0, 1, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 3, 1, 0, 0 , 4, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 2, 1, 0 , 1, 3, 0, 1 , 1, 2, 1, 0 , 2, 3, 0, 0 , 2, 2, 1, 1 , 2, 2, 0, 0 , 1, 3, 0, -1 , 1, 3, 0, -1 , 0, 3, 0, -1 , 0, 2, -1, 0 , 0, 3, 0, 0 , -1, 2, -1, -1 , -1, 2, 0, 0 , -2, 2, -1, 0 , -2, 3, 0, -1 , -2, 2, -1, 0 , -1, 3, 0, 0 , -1, 2, -1, -1 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, -2, -1, 0 , 1, -3, 0, -1 , 1, -2, -1, 0 , 2, -3, 0, 0 , 2, -2, -1, -1 , 2, -2, 0, 0 , 1, -2, -1, 0 , 1, -3, 0, -1 , 0, -2, -1, 0 , 0, -3, 0, 0 , 0, -2, -1, -1 , -1, -2, 0, 0 , -1, -2, -1, 0 , -2, -3, 0, -1 , -2, -2, -1, 0 , -2, -3, 0, 0 , -1, -2, -1, -1 , -1, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 0, 0, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 15, -1, 0, 0};</v>
+      </c>
+    </row>
+    <row r="261" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q261" s="12"/>
+    </row>
+    <row r="262" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P262" s="12"/>
+    </row>
+    <row r="263" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q263" s="12"/>
+    </row>
+    <row r="265" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P265" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bananas/Arrays_Only.xlsx
+++ b/Bananas/Arrays_Only.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Bananas/Bananas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACFCC83-A521-BF4C-A159-DFA613F1EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE4552-E039-C24E-89F0-03F21E3262B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="1" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="47420" windowHeight="30420" activeTab="2" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
   <sheets>
     <sheet name="Hidden" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="Stances" sheetId="1" r:id="rId2"/>
-    <sheet name="Map" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="11" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="Map" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="11" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="416">
   <si>
     <t>Images</t>
   </si>
@@ -1288,6 +1289,27 @@
   </si>
   <si>
     <t>Player_Falling_2L_C_LH_07</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -4709,9 +4731,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E106:E117"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5255,7 +5277,7 @@
         <v>-4</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -5265,7 +5287,7 @@
       </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
-        <v>-4, -1, 0, 0</v>
+        <v>-4, -2, 0, 0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5283,7 +5305,7 @@
         <v>-3</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -5293,7 +5315,7 @@
       </c>
       <c r="P21" t="str">
         <f t="shared" si="0"/>
-        <v>-3, -1, -1, 0</v>
+        <v>-3, -2, -1, 0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -5311,7 +5333,7 @@
         <v>-2</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5321,7 +5343,7 @@
       </c>
       <c r="P22" t="str">
         <f t="shared" si="0"/>
-        <v>-2, -1, 0, 0</v>
+        <v>-2, -2, 0, 0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -5339,7 +5361,7 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -5349,7 +5371,7 @@
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
-        <v>-1, -1, -1, -1</v>
+        <v>-1, -2, -1, -1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -5479,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -5489,7 +5511,7 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="5"/>
-        <v>1, -1, -1, 0</v>
+        <v>1, -2, -1, 0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5507,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5517,7 +5539,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="5"/>
-        <v>2, -1, 0, 0</v>
+        <v>2, -2, 0, 0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5535,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -5545,7 +5567,7 @@
       </c>
       <c r="P30" t="str">
         <f t="shared" ref="P30" si="6">_xlfn.CONCAT(D30,", ",E30,", ",F30,", ",G30)</f>
-        <v>3, -1, -1, -1</v>
+        <v>3, -2, -1, -1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5563,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -5573,7 +5595,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="5"/>
-        <v>4, -1, -1, -1</v>
+        <v>4, -2, -1, -1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7663,7 +7685,7 @@
         <v>-4</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7673,7 +7695,7 @@
       </c>
       <c r="P106" t="str">
         <f t="shared" si="0"/>
-        <v>-4, 1, 0, 0</v>
+        <v>-4, 2, 0, 0</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -7691,7 +7713,7 @@
         <v>-3</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -7701,7 +7723,7 @@
       </c>
       <c r="P107" t="str">
         <f t="shared" si="0"/>
-        <v>-3, 1, 1, 0</v>
+        <v>-3, 2, 1, 0</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -7719,7 +7741,7 @@
         <v>-2</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -7729,7 +7751,7 @@
       </c>
       <c r="P108" t="str">
         <f t="shared" si="0"/>
-        <v>-2, 1, 0, 0</v>
+        <v>-2, 2, 0, 0</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -7747,7 +7769,7 @@
         <v>-1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7757,7 +7779,7 @@
       </c>
       <c r="P109" t="str">
         <f t="shared" ref="P109:P125" si="13">_xlfn.CONCAT(D109,", ",E109,", ",F109,", ",G109)</f>
-        <v>-1, 1, 1, 1</v>
+        <v>-1, 2, 1, 1</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -7887,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -7897,7 +7919,7 @@
       </c>
       <c r="P114" t="str">
         <f t="shared" ref="P114:P117" si="14">_xlfn.CONCAT(D114,", ",E114,", ",F114,", ",G114)</f>
-        <v>1, 1, 0, 0</v>
+        <v>1, 2, 0, 0</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -7915,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7925,7 +7947,7 @@
       </c>
       <c r="P115" t="str">
         <f t="shared" si="14"/>
-        <v>2, 1, 1, 0</v>
+        <v>2, 2, 1, 0</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -7943,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -7953,7 +7975,7 @@
       </c>
       <c r="P116" t="str">
         <f t="shared" si="14"/>
-        <v>3, 1, 0, 0</v>
+        <v>3, 2, 0, 0</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -7971,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7981,7 +8003,7 @@
       </c>
       <c r="P117" t="str">
         <f t="shared" si="14"/>
-        <v>4, 1, 1, 1</v>
+        <v>4, 2, 1, 1</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -13837,7 +13859,7 @@
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C329" t="str">
         <f>_xlfn.CONCAT("int8_t StanceDetails = {",_xlfn.TEXTJOIN(" , ",FALSE,P$2:P325),"};")</f>
-        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, -1, 0, 0 , -3, -1, -1, 0 , -2, -1, 0, 0 , -1, -1, -1, -1 , 0, -2, -1, 0 , 0, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 1, -1, -1, 0 , 2, -1, 0, 0 , 3, -1, -1, -1 , 4, -1, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, 0, 0, -1 , 4, -1, -1, 0 , 4, 0, 0, 0 , 4, 0, 0, -1 , 4, 0, -1, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, -1 , 3, 0, 0, 0 , 4, -1, 0, 0 , 4, 0, -1, -1 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, 1, 0, 0 , -3, 1, 1, 0 , -2, 1, 0, 0 , -1, 1, 1, 1 , 0, 2, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 0 , 0, 2, 1, 1 , 1, 1, 0, 0 , 2, 1, 1, 0 , 3, 1, 0, 0 , 4, 1, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 1, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 1, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 2, 1, 0 , 1, 3, 0, 1 , 1, 2, 1, 0 , 2, 3, 0, 0 , 2, 2, 1, 1 , 2, 2, 0, 0 , 1, 3, 0, -1 , 1, 3, 0, -1 , 0, 3, 0, -1 , 0, 2, -1, 0 , 0, 3, 0, 0 , -1, 2, -1, -1 , -1, 2, 0, 0 , -2, 2, -1, 0 , -2, 3, 0, -1 , -2, 2, -1, 0 , -1, 3, 0, 0 , -1, 2, -1, -1 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, -2, -1, 0 , 1, -3, 0, -1 , 1, -2, -1, 0 , 2, -3, 0, 0 , 2, -2, -1, -1 , 2, -2, 0, 0 , 1, -2, -1, 0 , 1, -3, 0, -1 , 0, -2, -1, 0 , 0, -3, 0, 0 , 0, -2, -1, -1 , -1, -2, 0, 0 , -1, -2, -1, 0 , -2, -3, 0, -1 , -2, -2, -1, 0 , -2, -3, 0, 0 , -1, -2, -1, -1 , -1, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 0, 0, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 15, -1, 0, 0};</v>
+        <v>int8_t StanceDetails = {0, 0, 0, 0 , 0, 0, 0, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, -1, -1 , 0, -2, -1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, -2, 0, 0 , -3, -2, -1, 0 , -2, -2, 0, 0 , -1, -2, -1, -1 , 0, -2, -1, 0 , 0, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 1, -2, -1, 0 , 2, -2, 0, 0 , 3, -2, -1, -1 , 4, -2, -1, -1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, -2, -2, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, -1, 0, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, 0 , 3, 0, 0, -1 , 4, -1, -1, 0 , 4, 0, 0, 0 , 4, 0, 0, -1 , 4, 0, -1, 0 , 0, -2, -1, 0 , 0, -2, 0, -1 , 2, -1, -1, 0 , 2, -1, 0, -1 , 3, 0, 0, 0 , 3, -1, -1, 0 , 3, 0, 0, -1 , 3, 0, 0, 0 , 4, -1, 0, 0 , 4, 0, -1, -1 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , 0, 2, 1, 1 , 0, 2, 1, 0 , -4, 0, 0, 0 , -3, 0, 0, 0 , -2, 0, 0, 0 , -1, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 1, 0, 0, 0 , 2, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , -4, 2, 0, 0 , -3, 2, 1, 0 , -2, 2, 0, 0 , -1, 2, 1, 1 , 0, 2, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 0 , 0, 2, 1, 1 , 1, 2, 0, 0 , 2, 2, 1, 0 , 3, 2, 0, 0 , 4, 2, 1, 1 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , -2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 2, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 1, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 1, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 2, 1, 0 , 0, 2, 0, 1 , 2, 1, 1, 0 , 2, 1, 0, 1 , 3, 0, 0, 0 , 3, 1, 1, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 1, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, 2, 0, 0 , 0, 2, 0, 0 , 2, 1, 0, 0 , 2, 1, 0, 0 , 3, 1, 0, 0 , 3, 1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, 2, 1, 0 , 1, 3, 0, 1 , 1, 2, 1, 0 , 2, 3, 0, 0 , 2, 2, 1, 1 , 2, 2, 0, 0 , 1, 3, 0, -1 , 1, 3, 0, -1 , 0, 3, 0, -1 , 0, 2, -1, 0 , 0, 3, 0, 0 , -1, 2, -1, -1 , -1, 2, 0, 0 , -2, 2, -1, 0 , -2, 3, 0, -1 , -2, 2, -1, 0 , -1, 3, 0, 0 , -1, 2, -1, -1 , 0, 2, 0, 0 , 0, 2, 0, 0 , 0, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 0, -2, 0, 0 , 0, -2, 0, 0 , 2, -1, 0, 0 , 2, -1, 0, 0 , 3, -1, 0, 0 , 3, -1, 0, 0 , 3, 0, 0, 0 , 3, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 0, -2, -1, 0 , 1, -3, 0, -1 , 1, -2, -1, 0 , 2, -3, 0, 0 , 2, -2, -1, -1 , 2, -2, 0, 0 , 1, -2, -1, 0 , 1, -3, 0, -1 , 0, -2, -1, 0 , 0, -3, 0, 0 , 0, -2, -1, -1 , -1, -2, 0, 0 , -1, -2, -1, 0 , -2, -3, 0, -1 , -2, -2, -1, 0 , -2, -3, 0, 0 , -1, -2, -1, -1 , -1, -2, 0, 0 , 0, -2, -1, -1 , 0, -2, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , 4, 0, 0, 0 , -1, 0, 0, 0 , 1, 0, 0, 0 , 0, 0, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, -1, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 0, 0, 0, 0 , 15, -1, 0, 0};</v>
       </c>
     </row>
     <row r="350" spans="16:17" x14ac:dyDescent="0.2">
@@ -13859,6 +13881,3822 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16595356-4872-CC4D-894C-4B87C677E603}">
+  <dimension ref="F2:AH46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AH46" sqref="AH46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>410</v>
+      </c>
+      <c r="S2" t="s">
+        <v>411</v>
+      </c>
+      <c r="U2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>56</v>
+      </c>
+      <c r="O3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
+        <v>32</v>
+      </c>
+      <c r="S3">
+        <v>44</v>
+      </c>
+      <c r="U3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>-24</v>
+      </c>
+      <c r="I4">
+        <f>G4</f>
+        <v>-24</v>
+      </c>
+      <c r="K4">
+        <f>I4</f>
+        <v>-24</v>
+      </c>
+      <c r="M4">
+        <f>K4</f>
+        <v>-24</v>
+      </c>
+      <c r="O4">
+        <v>-24</v>
+      </c>
+      <c r="Q4">
+        <f>O4</f>
+        <v>-24</v>
+      </c>
+      <c r="S4">
+        <f>Q4</f>
+        <v>-24</v>
+      </c>
+      <c r="U4">
+        <f>S4</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="6" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>G4+G6</f>
+        <v>-20</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>I4+I6</f>
+        <v>-24</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>K4+K6</f>
+        <v>-24</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>M4+M6</f>
+        <v>-24</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>O4+O6</f>
+        <v>-24</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>Q4+Q6</f>
+        <v>-24</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>S4+S6</f>
+        <v>-24</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>U4+U6</f>
+        <v>-24</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>_xlfn.CONCAT(CODE($G$2)-65,",",$G$3,",",H6,",")</f>
+        <v>14,40,-20,</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>_xlfn.CONCAT(CODE($I$2)-65,",",$I$3,",",J6,",")</f>
+        <v>21,32,-24,</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>_xlfn.CONCAT(CODE($K$2)-65,",",$K$3,",",L6,",")</f>
+        <v>4,44,-24,</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>_xlfn.CONCAT(CODE($M$2)-65,",",$M$3,",",N6,",")</f>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>_xlfn.CONCAT(CODE($O$2)-65,",",$O$3,",",P6,",")</f>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>_xlfn.CONCAT(CODE($Q$2)-65,",",$Q$3,",",R6,",")</f>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>_xlfn.CONCAT(CODE($S$2)-65,",",$S$3,",",T6,",")</f>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>_xlfn.CONCAT(CODE($U$2)-65,",",$U$3,",",V6,",")</f>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH6" t="str">
+        <f>_xlfn.TEXTJOIN(" ",FALSE,Y6:AF6)</f>
+        <v>14,40,-20, 21,32,-24, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="7" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f>H6+G7</f>
+        <v>-16</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>J6+I7</f>
+        <v>-24</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>L6+K7</f>
+        <v>-24</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>N6+M7</f>
+        <v>-24</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>P6+O7</f>
+        <v>-24</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>R6+Q7</f>
+        <v>-24</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>T6+S7</f>
+        <v>-24</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>V6+U7</f>
+        <v>-24</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" ref="Y7:Y43" si="0">_xlfn.CONCAT(CODE($G$2)-65,",",$G$3,",",H7,",")</f>
+        <v>14,40,-16,</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" ref="Z7:Z43" si="1">_xlfn.CONCAT(CODE($I$2)-65,",",$I$3,",",J7,",")</f>
+        <v>21,32,-24,</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7:AA43" si="2">_xlfn.CONCAT(CODE($K$2)-65,",",$K$3,",",L7,",")</f>
+        <v>4,44,-24,</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" ref="AB7:AB43" si="3">_xlfn.CONCAT(CODE($M$2)-65,",",$M$3,",",N7,",")</f>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" ref="AC7:AC43" si="4">_xlfn.CONCAT(CODE($O$2)-65,",",$O$3,",",P7,",")</f>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" ref="AD7:AD43" si="5">_xlfn.CONCAT(CODE($Q$2)-65,",",$Q$3,",",R7,",")</f>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" ref="AE7:AE43" si="6">_xlfn.CONCAT(CODE($S$2)-65,",",$S$3,",",T7,",")</f>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" ref="AF7:AF43" si="7">_xlfn.CONCAT(CODE($U$2)-65,",",$U$3,",",V7,",")</f>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" ref="AH7:AH43" si="8">_xlfn.TEXTJOIN(" ",FALSE,Y7:AF7)</f>
+        <v>14,40,-16, 21,32,-24, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="8" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:V43" si="9">H7+G8</f>
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,-12,</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,-20,</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-24,</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,-12, 21,32,-20, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="9" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,-8,</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,-16,</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-24,</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,-8, 21,32,-16, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="10" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,-4,</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,-12,</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-20,</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,-4, 21,32,-12, 4,44,-20, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="11" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V43" si="10">V10+U11</f>
+        <v>-24</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,0,</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,-8,</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-16,</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-24,</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,0, 21,32,-8, 4,44,-16, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="12" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,4,</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,-4,</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-12,</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-20,</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,4, 21,32,-4, 4,44,-12, 17,56,-20, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="13" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,8,</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,0,</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-8,</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-16,</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,8, 21,32,0, 4,44,-8, 17,56,-16, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="14" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,12,</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,4,</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,-4,</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-12,</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,12, 21,32,4, 4,44,-4, 17,56,-12, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="15" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,16,</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,8,</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,0,</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-8,</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,16, 21,32,8, 4,44,0, 17,56,-8, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="16" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,20,</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,12,</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,4,</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,-4,</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,20, 21,32,12, 4,44,4, 17,56,-4, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="17" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,24,</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,16,</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,8,</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,0,</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,24, 21,32,16, 4,44,8, 17,56,0, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="18" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,28,</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,20,</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,12,</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,4,</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,28, 21,32,20, 4,44,12, 17,56,4, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="19" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,32,</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,24,</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,16,</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,8,</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-24,</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,32, 21,32,24, 4,44,16, 17,56,8, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="20" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,28,</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,20,</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,12,</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-20,</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,28, 4,44,20, 17,56,12, 6,38,-20, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="21" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,33,</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,32,</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,24,</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,16,</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-16,</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-24,</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH21" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,33, 21,32,32, 4,44,24, 17,56,16, 6,38,-16, 0,32,-24, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="22" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,31,</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,28,</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,20,</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-12,</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-20,</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH22" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,31, 21,32,36, 4,44,28, 17,56,20, 6,38,-12, 0,32,-20, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="23" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,30,</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,33,</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,32,</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,24,</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-8,</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-16,</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-24,</v>
+      </c>
+      <c r="AF23" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH23" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,30, 21,32,33, 4,44,32, 17,56,24, 6,38,-8, 0,32,-16, 12,44,-24, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="24" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,30,</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,31,</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,28,</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,-4,</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-12,</v>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-20,</v>
+      </c>
+      <c r="AF24" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH24" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,30, 21,32,31, 4,44,36, 17,56,28, 6,38,-4, 0,32,-12, 12,44,-20, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="25" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>-3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>-16</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,31,</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,30,</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,33,</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,32,</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,0,</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-8,</v>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-16,</v>
+      </c>
+      <c r="AF25" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-24,</v>
+      </c>
+      <c r="AH25" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,31, 21,32,30, 4,44,33, 17,56,32, 6,38,0, 0,32,-8, 12,44,-16, 4,56,-24,</v>
+      </c>
+    </row>
+    <row r="26" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>-12</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>-20</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,33,</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,30,</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,31,</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,4,</v>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,-4,</v>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-12,</v>
+      </c>
+      <c r="AF26" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-20,</v>
+      </c>
+      <c r="AH26" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,33, 21,32,30, 4,44,31, 17,56,36, 6,38,4, 0,32,-4, 12,44,-12, 4,56,-20,</v>
+      </c>
+    </row>
+    <row r="27" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>-3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>-16</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,31,</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,30,</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,33,</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,8,</v>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,0,</v>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-8,</v>
+      </c>
+      <c r="AF27" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-16,</v>
+      </c>
+      <c r="AH27" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,31, 4,44,30, 17,56,33, 6,38,8, 0,32,0, 12,44,-8, 4,56,-16,</v>
+      </c>
+    </row>
+    <row r="28" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="10"/>
+        <v>-12</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,35,</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,33,</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,30,</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,31,</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,4,</v>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,-4,</v>
+      </c>
+      <c r="AF28" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-12,</v>
+      </c>
+      <c r="AH28" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,35, 21,32,33, 4,44,30, 17,56,31, 6,38,12, 0,32,4, 12,44,-4, 4,56,-12,</v>
+      </c>
+    </row>
+    <row r="29" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <v>-3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,31,</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,30,</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,9,</v>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,8,</v>
+      </c>
+      <c r="AE29" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,0,</v>
+      </c>
+      <c r="AF29" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-8,</v>
+      </c>
+      <c r="AH29" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,31, 17,56,30, 6,38,9, 0,32,8, 12,44,0, 4,56,-8,</v>
+      </c>
+    </row>
+    <row r="30" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <v>-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,35,</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,33,</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,30,</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,7,</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,4,</v>
+      </c>
+      <c r="AF30" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,-4,</v>
+      </c>
+      <c r="AH30" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,35, 4,44,33, 17,56,30, 6,38,7, 0,32,12, 12,44,4, 4,56,-4,</v>
+      </c>
+    </row>
+    <row r="31" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,31,</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,6,</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,9,</v>
+      </c>
+      <c r="AE31" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,8,</v>
+      </c>
+      <c r="AF31" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,0,</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,31, 6,38,6, 0,32,9, 12,44,8, 4,56,0,</v>
+      </c>
+    </row>
+    <row r="32" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,35,</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,33,</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,6,</v>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,7,</v>
+      </c>
+      <c r="AE32" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,12,</v>
+      </c>
+      <c r="AF32" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,4,</v>
+      </c>
+      <c r="AH32" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,35, 17,56,33, 6,38,6, 0,32,7, 12,44,12, 4,56,4,</v>
+      </c>
+    </row>
+    <row r="33" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>-3</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,7,</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,6,</v>
+      </c>
+      <c r="AE33" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,9,</v>
+      </c>
+      <c r="AF33" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,8,</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,7, 0,32,6, 12,44,9, 4,56,8,</v>
+      </c>
+    </row>
+    <row r="34" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>-2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,35,</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,9,</v>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,6,</v>
+      </c>
+      <c r="AE34" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,7,</v>
+      </c>
+      <c r="AF34" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,12,</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,35, 6,38,9, 0,32,6, 12,44,7, 4,56,12,</v>
+      </c>
+    </row>
+    <row r="35" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>-3</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,7,</v>
+      </c>
+      <c r="AE35" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,6,</v>
+      </c>
+      <c r="AF35" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,9,</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,7, 12,44,6, 4,56,9,</v>
+      </c>
+    </row>
+    <row r="36" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>31</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,11,</v>
+      </c>
+      <c r="AD36" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,9,</v>
+      </c>
+      <c r="AE36" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,6,</v>
+      </c>
+      <c r="AF36" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,7,</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,11, 0,32,9, 12,44,6, 4,56,7,</v>
+      </c>
+    </row>
+    <row r="37" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U37">
+        <v>-1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD37" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE37" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,7,</v>
+      </c>
+      <c r="AF37" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,6,</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,7, 4,56,6,</v>
+      </c>
+    </row>
+    <row r="38" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,11,</v>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,9,</v>
+      </c>
+      <c r="AF38" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,6,</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,11, 12,44,9, 4,56,6,</v>
+      </c>
+    </row>
+    <row r="39" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD39" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE39" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,12,</v>
+      </c>
+      <c r="AF39" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,7,</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,7,</v>
+      </c>
+    </row>
+    <row r="40" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S40">
+        <v>-1</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,11,</v>
+      </c>
+      <c r="AF40" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,9,</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,11, 4,56,9,</v>
+      </c>
+    </row>
+    <row r="41" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,12,</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,12,</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,12,</v>
+      </c>
+    </row>
+    <row r="42" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>37</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U42">
+        <v>-1</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,12,</v>
+      </c>
+      <c r="AF42" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,11,</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,11,</v>
+      </c>
+    </row>
+    <row r="43" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="0"/>
+        <v>14,40,36,</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="1"/>
+        <v>21,32,36,</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="2"/>
+        <v>4,44,36,</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="3"/>
+        <v>17,56,36,</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="4"/>
+        <v>6,38,12,</v>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="5"/>
+        <v>0,32,12,</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="6"/>
+        <v>12,44,12,</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="7"/>
+        <v>4,56,12,</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="8"/>
+        <v>14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,12,</v>
+      </c>
+    </row>
+    <row r="46" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="AH46" t="str">
+        <f>_xlfn.CONCAT("int8_t GameOver = {",_xlfn.TEXTJOIN(" ",FALSE,AH6:AH43),"};")</f>
+        <v>int8_t GameOver = {14,40,-20, 21,32,-24, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,-16, 21,32,-24, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,-12, 21,32,-20, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,-8, 21,32,-16, 4,44,-24, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,-4, 21,32,-12, 4,44,-20, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,0, 21,32,-8, 4,44,-16, 17,56,-24, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,4, 21,32,-4, 4,44,-12, 17,56,-20, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,8, 21,32,0, 4,44,-8, 17,56,-16, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,12, 21,32,4, 4,44,-4, 17,56,-12, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,16, 21,32,8, 4,44,0, 17,56,-8, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,20, 21,32,12, 4,44,4, 17,56,-4, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,24, 21,32,16, 4,44,8, 17,56,0, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,28, 21,32,20, 4,44,12, 17,56,4, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,32, 21,32,24, 4,44,16, 17,56,8, 6,38,-24, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,36, 21,32,28, 4,44,20, 17,56,12, 6,38,-20, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,33, 21,32,32, 4,44,24, 17,56,16, 6,38,-16, 0,32,-24, 12,44,-24, 4,56,-24, 14,40,31, 21,32,36, 4,44,28, 17,56,20, 6,38,-12, 0,32,-20, 12,44,-24, 4,56,-24, 14,40,30, 21,32,33, 4,44,32, 17,56,24, 6,38,-8, 0,32,-16, 12,44,-24, 4,56,-24, 14,40,30, 21,32,31, 4,44,36, 17,56,28, 6,38,-4, 0,32,-12, 12,44,-20, 4,56,-24, 14,40,31, 21,32,30, 4,44,33, 17,56,32, 6,38,0, 0,32,-8, 12,44,-16, 4,56,-24, 14,40,33, 21,32,30, 4,44,31, 17,56,36, 6,38,4, 0,32,-4, 12,44,-12, 4,56,-20, 14,40,36, 21,32,31, 4,44,30, 17,56,33, 6,38,8, 0,32,0, 12,44,-8, 4,56,-16, 14,40,35, 21,32,33, 4,44,30, 17,56,31, 6,38,12, 0,32,4, 12,44,-4, 4,56,-12, 14,40,36, 21,32,36, 4,44,31, 17,56,30, 6,38,9, 0,32,8, 12,44,0, 4,56,-8, 14,40,36, 21,32,35, 4,44,33, 17,56,30, 6,38,7, 0,32,12, 12,44,4, 4,56,-4, 14,40,36, 21,32,36, 4,44,36, 17,56,31, 6,38,6, 0,32,9, 12,44,8, 4,56,0, 14,40,36, 21,32,36, 4,44,35, 17,56,33, 6,38,6, 0,32,7, 12,44,12, 4,56,4, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,7, 0,32,6, 12,44,9, 4,56,8, 14,40,36, 21,32,36, 4,44,36, 17,56,35, 6,38,9, 0,32,6, 12,44,7, 4,56,12, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,7, 12,44,6, 4,56,9, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,11, 0,32,9, 12,44,6, 4,56,7, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,7, 4,56,6, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,11, 12,44,9, 4,56,6, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,7, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,11, 4,56,9, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,12, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,11, 14,40,36, 21,32,36, 4,44,36, 17,56,36, 6,38,12, 0,32,12, 12,44,12, 4,56,12,};</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7D2FE2-C042-3D4D-8CB4-4364F90685D7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV114"/>
@@ -19013,7 +22851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA333EDA-BDBF-4A49-8373-1513F25F3910}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="G26:V67"/>
